--- a/public_report.xlsx
+++ b/public_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\rating_calculator\real\output\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006075B6-D00F-47F9-B7F1-5F7D5CAB2CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117FFB4E-48C1-467A-8551-55D0730A2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$200</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="680">
   <si>
     <t>이름</t>
   </si>
@@ -290,15 +290,6 @@
   </si>
   <si>
     <t>57.1% (7 게임)</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>8등 (총 13명)</t>
   </si>
   <si>
     <t>다나짱</t>
@@ -2083,6 +2074,10 @@
   </si>
   <si>
     <t>비공개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비활성화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2458,10 +2453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R154" sqref="R154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2513,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -2522,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2545,19 +2541,19 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>19</v>
@@ -2566,7 +2562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2589,19 +2585,19 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>24</v>
@@ -2610,7 +2606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -2633,19 +2629,19 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -2654,7 +2650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2689,7 +2685,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>19</v>
@@ -2698,7 +2694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2733,7 +2729,7 @@
         <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>24</v>
@@ -2742,7 +2738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -2777,16 +2773,16 @@
         <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2821,16 +2817,16 @@
         <v>18</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -2865,16 +2861,16 @@
         <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -2909,7 +2905,7 @@
         <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>60</v>
@@ -2918,7 +2914,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -2953,16 +2949,16 @@
         <v>65</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -2997,16 +2993,16 @@
         <v>70</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
@@ -3041,7 +3037,7 @@
         <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>77</v>
@@ -3050,7 +3046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -3085,7 +3081,7 @@
         <v>83</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>84</v>
@@ -3094,15 +3090,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -3114,39 +3110,39 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -3158,39 +3154,39 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -3202,171 +3198,171 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -3378,39 +3374,39 @@
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -3422,33 +3418,33 @@
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -3466,39 +3462,39 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -3510,39 +3506,39 @@
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="2">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
@@ -3554,39 +3550,39 @@
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -3598,39 +3594,39 @@
         <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -3642,39 +3638,39 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -3686,39 +3682,39 @@
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -3730,83 +3726,83 @@
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>179</v>
+        <v>664</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
@@ -3818,39 +3814,39 @@
         <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -3862,39 +3858,39 @@
         <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>666</v>
+        <v>205</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -3906,39 +3902,39 @@
         <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -3950,39 +3946,39 @@
         <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -3994,39 +3990,39 @@
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -4038,39 +4034,39 @@
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -4082,39 +4078,39 @@
         <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
@@ -4126,39 +4122,39 @@
         <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2">
         <v>4</v>
@@ -4170,39 +4166,39 @@
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
@@ -4214,39 +4210,39 @@
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
@@ -4258,39 +4254,39 @@
         <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -4302,31 +4298,31 @@
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>258</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
@@ -4334,7 +4330,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
@@ -4349,36 +4345,36 @@
         <v>260</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>261</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
@@ -4393,36 +4389,36 @@
         <v>263</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C45" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2">
         <v>4</v>
@@ -4434,39 +4430,39 @@
         <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
@@ -4478,39 +4474,39 @@
         <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D47" s="2">
         <v>4</v>
@@ -4522,83 +4518,83 @@
         <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C48" s="2">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -4610,39 +4606,39 @@
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C50" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -4654,39 +4650,39 @@
         <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
@@ -4698,39 +4694,39 @@
         <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -4742,39 +4738,39 @@
         <v>15</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -4786,83 +4782,83 @@
         <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="2">
-        <v>121</v>
-      </c>
-      <c r="D54" s="2">
-        <v>5</v>
-      </c>
-      <c r="E54" s="2">
-        <v>5</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C55" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D55" s="2">
         <v>6</v>
@@ -4874,39 +4870,39 @@
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>360</v>
+        <v>99</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>668</v>
+        <v>362</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="D56" s="2">
         <v>6</v>
@@ -4918,39 +4914,39 @@
         <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>118</v>
+        <v>365</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="D57" s="2">
         <v>6</v>
@@ -4962,39 +4958,39 @@
         <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D58" s="2">
         <v>6</v>
@@ -5006,39 +5002,39 @@
         <v>15</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>375</v>
+        <v>212</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>376</v>
+        <v>281</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C59" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D59" s="2">
         <v>6</v>
@@ -5050,39 +5046,39 @@
         <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2">
         <v>6</v>
@@ -5094,39 +5090,39 @@
         <v>15</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C61" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D61" s="2">
         <v>6</v>
@@ -5138,39 +5134,39 @@
         <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>392</v>
+        <v>208</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D62" s="2">
         <v>6</v>
@@ -5182,39 +5178,39 @@
         <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>397</v>
+        <v>228</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>398</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D63" s="2">
         <v>6</v>
@@ -5229,36 +5225,36 @@
         <v>400</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>118</v>
+        <v>402</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D64" s="2">
         <v>6</v>
@@ -5270,39 +5266,39 @@
         <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>406</v>
+        <v>18</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="D65" s="2">
         <v>6</v>
@@ -5314,39 +5310,39 @@
         <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>411</v>
+        <v>56</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C66" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D66" s="2">
         <v>6</v>
@@ -5358,39 +5354,39 @@
         <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>205</v>
+        <v>339</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D67" s="2">
         <v>6</v>
@@ -5402,127 +5398,127 @@
         <v>15</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D68" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68" s="2">
         <v>6</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>427</v>
+        <v>207</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D69" s="2">
         <v>7</v>
       </c>
       <c r="E69" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2">
         <v>7</v>
@@ -5534,39 +5530,39 @@
         <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C71" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="D71" s="2">
         <v>7</v>
@@ -5578,39 +5574,39 @@
         <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>459</v>
+        <v>43</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2">
         <v>7</v>
@@ -5622,39 +5618,39 @@
         <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>43</v>
+        <v>467</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>465</v>
+        <v>17</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>466</v>
+        <v>265</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>455</v>
+        <v>93</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D73" s="2">
         <v>7</v>
@@ -5666,39 +5662,39 @@
         <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>17</v>
+        <v>471</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>268</v>
+        <v>472</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D74" s="2">
         <v>7</v>
@@ -5710,39 +5706,39 @@
         <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>30</v>
+        <v>476</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>475</v>
+        <v>203</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D75" s="2">
         <v>7</v>
@@ -5754,39 +5750,39 @@
         <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>480</v>
+        <v>389</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C76" s="2">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="D76" s="2">
         <v>7</v>
@@ -5798,31 +5794,31 @@
         <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
       <c r="H76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="K76" s="2" t="s">
-        <v>178</v>
+        <v>452</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>485</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>486</v>
       </c>
@@ -5830,7 +5826,7 @@
         <v>26</v>
       </c>
       <c r="C77" s="2">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D77" s="2">
         <v>7</v>
@@ -5842,39 +5838,39 @@
         <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>309</v>
+        <v>487</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>455</v>
+        <v>175</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C78" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2">
         <v>7</v>
@@ -5886,39 +5882,39 @@
         <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>227</v>
+        <v>492</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>178</v>
+        <v>494</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D79" s="2">
         <v>7</v>
@@ -5930,39 +5926,39 @@
         <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>495</v>
+        <v>401</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>17</v>
+        <v>498</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>497</v>
+        <v>99</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D80" s="2">
         <v>7</v>
@@ -5974,39 +5970,39 @@
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>404</v>
+        <v>503</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2">
         <v>7</v>
@@ -6018,22 +6014,22 @@
         <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>506</v>
+        <v>17</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>507</v>
+        <v>401</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>508</v>
+        <v>52</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>509</v>
@@ -6042,15 +6038,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C82" s="2">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="D82" s="2">
         <v>7</v>
@@ -6065,36 +6061,36 @@
         <v>511</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>17</v>
+        <v>512</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>52</v>
+        <v>513</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C83" s="2">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="D83" s="2">
         <v>7</v>
@@ -6106,39 +6102,39 @@
         <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>515</v>
+        <v>56</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>139</v>
+        <v>518</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C84" s="2">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="D84" s="2">
         <v>7</v>
@@ -6150,39 +6146,39 @@
         <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>353</v>
+        <v>522</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2">
         <v>7</v>
@@ -6194,39 +6190,39 @@
         <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>525</v>
+        <v>240</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>527</v>
+        <v>280</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D86" s="2">
         <v>7</v>
@@ -6238,127 +6234,127 @@
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>243</v>
+        <v>532</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>531</v>
+        <v>18</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D87" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" s="2">
         <v>7</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>56</v>
+        <v>536</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>535</v>
+        <v>17</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>18</v>
+        <v>505</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C88" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="D88" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2">
         <v>7</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>17</v>
+        <v>541</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>508</v>
+        <v>98</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="D89" s="2">
         <v>7</v>
@@ -6370,39 +6366,39 @@
         <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>543</v>
+        <v>17</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>101</v>
+        <v>546</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C90" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D90" s="2">
         <v>7</v>
@@ -6414,83 +6410,83 @@
         <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>207</v>
+        <v>551</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D91" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>82</v>
+        <v>580</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>555</v>
+        <v>670</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D92" s="2">
         <v>8</v>
@@ -6502,39 +6498,39 @@
         <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>17</v>
+        <v>571</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>583</v>
+        <v>18</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C93" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D93" s="2">
         <v>8</v>
@@ -6546,39 +6542,39 @@
         <v>15</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>18</v>
+        <v>576</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>575</v>
+        <v>242</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C94" s="2">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="D94" s="2">
         <v>8</v>
@@ -6590,39 +6586,39 @@
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>245</v>
+        <v>585</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>675</v>
+        <v>586</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C95" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D95" s="2">
         <v>8</v>
@@ -6634,39 +6630,39 @@
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>588</v>
+        <v>99</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C96" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D96" s="2">
         <v>8</v>
@@ -6678,39 +6674,39 @@
         <v>15</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D97" s="2">
         <v>8</v>
@@ -6722,39 +6718,39 @@
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D98" s="2">
         <v>8</v>
@@ -6766,22 +6762,22 @@
         <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>600</v>
+        <v>394</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>601</v>
+        <v>18</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>429</v>
+        <v>18</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>602</v>
@@ -6790,15 +6786,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>603</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C99" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D99" s="2">
         <v>8</v>
@@ -6813,36 +6809,36 @@
         <v>604</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>397</v>
+        <v>115</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>18</v>
+        <v>605</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C100" s="2">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D100" s="2">
         <v>8</v>
@@ -6854,22 +6850,22 @@
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>608</v>
+        <v>18</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>609</v>
@@ -6878,15 +6874,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>610</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D101" s="2">
         <v>8</v>
@@ -6901,10 +6897,10 @@
         <v>611</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>56</v>
+        <v>612</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>18</v>
@@ -6913,68 +6909,68 @@
         <v>18</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D102" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102" s="2">
         <v>8</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>353</v>
+        <v>616</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>615</v>
+        <v>17</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>18</v>
+        <v>617</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C103" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D103" s="2">
         <v>9</v>
@@ -6986,127 +6982,127 @@
         <v>40</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>619</v>
+        <v>140</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>620</v>
+        <v>18</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>339</v>
+        <v>621</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C104" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D104" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104" s="2">
         <v>8</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>624</v>
+        <v>52</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C105" s="2">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D105" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>51</v>
+        <v>676</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>52</v>
+        <v>676</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>629</v>
+        <v>362</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C106" s="2">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D106" s="2">
         <v>9</v>
@@ -7118,39 +7114,39 @@
         <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>648</v>
+        <v>17</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C107" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D107" s="2">
         <v>9</v>
@@ -7165,36 +7161,36 @@
         <v>17</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C108" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D108" s="2">
         <v>9</v>
@@ -7206,39 +7202,39 @@
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>17</v>
+        <v>649</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>170</v>
+        <v>650</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>651</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2">
         <v>9</v>
@@ -7250,39 +7246,39 @@
         <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>652</v>
+        <v>17</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>653</v>
+        <v>17</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C110" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" s="2">
         <v>9</v>
@@ -7294,39 +7290,39 @@
         <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" s="2">
         <v>9</v>
@@ -7338,7 +7334,7 @@
         <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>56</v>
@@ -7347,30 +7343,30 @@
         <v>17</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C112" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D112" s="2">
         <v>9</v>
@@ -7385,36 +7381,36 @@
         <v>17</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C113" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D113" s="2">
         <v>9</v>
@@ -7426,7 +7422,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>17</v>
@@ -7435,13 +7431,13 @@
         <v>17</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>398</v>
@@ -7450,15 +7446,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C114" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D114" s="2">
         <v>9</v>
@@ -7470,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>17</v>
@@ -7479,30 +7475,30 @@
         <v>17</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C115" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D115" s="2">
         <v>9</v>
@@ -7514,7 +7510,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>17</v>
@@ -7523,30 +7519,30 @@
         <v>17</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C116" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D116" s="2">
         <v>9</v>
@@ -7558,7 +7554,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>17</v>
@@ -7567,27 +7563,27 @@
         <v>17</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -7611,27 +7607,27 @@
         <v>17</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -7655,30 +7651,30 @@
         <v>17</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C119" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D119" s="2">
         <v>9</v>
@@ -7690,25 +7686,25 @@
         <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>17</v>
+        <v>662</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>20</v>
@@ -7716,51 +7712,51 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>664</v>
+        <v>86</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D120" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E120" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>15</v>
+        <v>679</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>290</v>
+        <v>678</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>17</v>
+        <v>678</v>
       </c>
       <c r="J120" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="L120" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="M120" s="2" t="s">
-        <v>434</v>
+        <v>180</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>26</v>
@@ -7775,36 +7771,36 @@
         <v>3</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>14</v>
@@ -7819,36 +7815,36 @@
         <v>3</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>14</v>
@@ -7863,36 +7859,36 @@
         <v>3</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>26</v>
@@ -7907,36 +7903,36 @@
         <v>3</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>26</v>
@@ -7951,36 +7947,36 @@
         <v>3</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>26</v>
@@ -7995,36 +7991,36 @@
         <v>3</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>14</v>
@@ -8039,36 +8035,36 @@
         <v>3</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>22</v>
@@ -8083,36 +8079,36 @@
         <v>3</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>22</v>
@@ -8127,36 +8123,36 @@
         <v>3</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>26</v>
@@ -8171,36 +8167,36 @@
         <v>4</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>14</v>
@@ -8215,36 +8211,36 @@
         <v>4</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>26</v>
@@ -8259,36 +8255,36 @@
         <v>4</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>14</v>
@@ -8303,36 +8299,36 @@
         <v>4</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>14</v>
@@ -8347,36 +8343,36 @@
         <v>4</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>22</v>
@@ -8391,36 +8387,36 @@
         <v>4</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>26</v>
@@ -8435,36 +8431,36 @@
         <v>4</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>22</v>
@@ -8479,36 +8475,36 @@
         <v>5</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>14</v>
@@ -8523,36 +8519,36 @@
         <v>5</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>14</v>
@@ -8567,36 +8563,36 @@
         <v>5</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>26</v>
@@ -8611,36 +8607,36 @@
         <v>5</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>26</v>
@@ -8655,36 +8651,36 @@
         <v>5</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>26</v>
@@ -8699,36 +8695,36 @@
         <v>5</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>22</v>
@@ -8743,36 +8739,36 @@
         <v>5</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>26</v>
@@ -8787,36 +8783,36 @@
         <v>5</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>14</v>
@@ -8831,36 +8827,36 @@
         <v>5</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>26</v>
@@ -8875,36 +8871,36 @@
         <v>5</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>22</v>
@@ -8919,36 +8915,36 @@
         <v>5</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>26</v>
@@ -8963,36 +8959,36 @@
         <v>5</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>22</v>
@@ -9007,36 +9003,36 @@
         <v>5</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>22</v>
@@ -9051,36 +9047,36 @@
         <v>5</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>22</v>
@@ -9095,36 +9091,36 @@
         <v>5</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>26</v>
@@ -9139,36 +9135,36 @@
         <v>5</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>26</v>
@@ -9183,36 +9179,36 @@
         <v>6</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>26</v>
@@ -9227,36 +9223,36 @@
         <v>6</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>14</v>
@@ -9271,36 +9267,36 @@
         <v>6</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>14</v>
@@ -9315,36 +9311,36 @@
         <v>6</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>26</v>
@@ -9359,36 +9355,36 @@
         <v>6</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>14</v>
@@ -9403,36 +9399,36 @@
         <v>6</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>14</v>
@@ -9447,36 +9443,36 @@
         <v>6</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>14</v>
@@ -9491,36 +9487,36 @@
         <v>6</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>14</v>
@@ -9535,36 +9531,36 @@
         <v>6</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>22</v>
@@ -9579,36 +9575,36 @@
         <v>6</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>14</v>
@@ -9623,36 +9619,36 @@
         <v>6</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>14</v>
@@ -9667,36 +9663,36 @@
         <v>6</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>22</v>
@@ -9711,36 +9707,36 @@
         <v>6</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>26</v>
@@ -9755,36 +9751,36 @@
         <v>6</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>26</v>
@@ -9799,36 +9795,36 @@
         <v>6</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>26</v>
@@ -9843,36 +9839,36 @@
         <v>6</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>14</v>
@@ -9887,36 +9883,36 @@
         <v>7</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>26</v>
@@ -9931,36 +9927,36 @@
         <v>7</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>22</v>
@@ -9975,36 +9971,36 @@
         <v>7</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>22</v>
@@ -10019,36 +10015,36 @@
         <v>7</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>26</v>
@@ -10063,36 +10059,36 @@
         <v>7</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>26</v>
@@ -10107,36 +10103,36 @@
         <v>7</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>14</v>
@@ -10151,36 +10147,36 @@
         <v>7</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>14</v>
@@ -10195,36 +10191,36 @@
         <v>7</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>22</v>
@@ -10239,36 +10235,36 @@
         <v>7</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>26</v>
@@ -10283,36 +10279,36 @@
         <v>7</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>26</v>
@@ -10327,36 +10323,36 @@
         <v>7</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>26</v>
@@ -10371,36 +10367,36 @@
         <v>7</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>14</v>
@@ -10415,36 +10411,36 @@
         <v>7</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>26</v>
@@ -10459,36 +10455,36 @@
         <v>7</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>22</v>
@@ -10503,36 +10499,36 @@
         <v>7</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>22</v>
@@ -10547,36 +10543,36 @@
         <v>8</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>22</v>
@@ -10591,36 +10587,36 @@
         <v>8</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>14</v>
@@ -10635,36 +10631,36 @@
         <v>8</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>26</v>
@@ -10679,36 +10675,36 @@
         <v>8</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>14</v>
@@ -10723,36 +10719,36 @@
         <v>8</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>14</v>
@@ -10767,36 +10763,36 @@
         <v>8</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>14</v>
@@ -10811,36 +10807,36 @@
         <v>8</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>26</v>
@@ -10855,36 +10851,36 @@
         <v>8</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>26</v>
@@ -10899,36 +10895,36 @@
         <v>8</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>14</v>
@@ -10943,36 +10939,36 @@
         <v>8</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>14</v>
@@ -10987,36 +10983,36 @@
         <v>8</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>26</v>
@@ -11031,36 +11027,36 @@
         <v>8</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>22</v>
@@ -11075,36 +11071,36 @@
         <v>8</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>26</v>
@@ -11119,36 +11115,36 @@
         <v>8</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>26</v>
@@ -11163,36 +11159,36 @@
         <v>8</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>14</v>
@@ -11207,36 +11203,36 @@
         <v>8</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>26</v>
@@ -11251,34 +11247,41 @@
         <v>8</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N200" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="비활성화"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_report.xlsx
+++ b/public_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\rating_calculator\real\output\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27745E0-283D-465A-A746-7190866384F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C949723-217F-4020-B78A-5FF1CFC5A0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>0.86</t>
   </si>
   <si>
-    <t>1등 (총 13명)</t>
-  </si>
-  <si>
     <t>높음</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>0.0% (2 게임)</t>
   </si>
   <si>
-    <t>2등 (총 13명)</t>
-  </si>
-  <si>
     <t>또봉순</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>0.56</t>
   </si>
   <si>
-    <t>3등 (총 13명)</t>
-  </si>
-  <si>
     <t>보통</t>
   </si>
   <si>
@@ -238,9 +229,6 @@
     <t>0.97</t>
   </si>
   <si>
-    <t>4등 (총 13명)</t>
-  </si>
-  <si>
     <t>세나</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
     <t>0.85</t>
   </si>
   <si>
-    <t>5등 (총 13명)</t>
-  </si>
-  <si>
     <t>우힝이</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>3.57</t>
   </si>
   <si>
-    <t>6등 (총 13명)</t>
-  </si>
-  <si>
     <t>다소 낮음</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
     <t>0.27</t>
   </si>
   <si>
-    <t>7등 (총 13명)</t>
-  </si>
-  <si>
     <t>아주 높음</t>
   </si>
   <si>
@@ -310,9 +289,6 @@
     <t>1.34</t>
   </si>
   <si>
-    <t>8등 (총 13명)</t>
-  </si>
-  <si>
     <t>다나짱</t>
   </si>
   <si>
@@ -325,9 +301,6 @@
     <t>2.50</t>
   </si>
   <si>
-    <t>9등 (총 13명)</t>
-  </si>
-  <si>
     <t>히엉</t>
   </si>
   <si>
@@ -343,9 +316,6 @@
     <t>0.40</t>
   </si>
   <si>
-    <t>10등 (총 13명)</t>
-  </si>
-  <si>
     <t>슬돌이</t>
   </si>
   <si>
@@ -361,9 +331,6 @@
     <t>0.35</t>
   </si>
   <si>
-    <t>11등 (총 13명)</t>
-  </si>
-  <si>
     <t>다예</t>
   </si>
   <si>
@@ -382,9 +349,6 @@
     <t>0.38</t>
   </si>
   <si>
-    <t>12등 (총 13명)</t>
-  </si>
-  <si>
     <t>카히리</t>
   </si>
   <si>
@@ -400,9 +364,6 @@
     <t>2.31</t>
   </si>
   <si>
-    <t>13등 (총 13명)</t>
-  </si>
-  <si>
     <t>나무늘봉순</t>
   </si>
   <si>
@@ -2080,9 +2041,6 @@
     <t>37.5% (24 게임)</t>
   </si>
   <si>
-    <t>1등 (총 26명)</t>
-  </si>
-  <si>
     <t>예꾸</t>
   </si>
   <si>
@@ -2092,13 +2050,7 @@
     <t>34.8% (23 게임)</t>
   </si>
   <si>
-    <t>2등 (총 26명)</t>
-  </si>
-  <si>
     <t>채비</t>
-  </si>
-  <si>
-    <t>3등 (총 26명)</t>
   </si>
   <si>
     <t>구마우니</t>
@@ -2300,6 +2252,70 @@
   </si>
   <si>
     <t>12등 (총 12명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14등 (총 14명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1등 (총 25명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2등 (총 25명)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2675,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q211"/>
+  <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R208" sqref="R208"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2730,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -2768,19 +2784,19 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -2812,19 +2828,19 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -2856,19 +2872,19 @@
         <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -2906,13 +2922,13 @@
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -2950,13 +2966,13 @@
         <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -2994,13 +3010,13 @@
         <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -3038,18 +3054,18 @@
         <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -3067,10 +3083,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>45</v>
@@ -3082,18 +3098,18 @@
         <v>18</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -3111,33 +3127,33 @@
         <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -3155,7 +3171,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
@@ -3164,24 +3180,24 @@
         <v>17</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -3199,7 +3215,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
@@ -3208,24 +3224,24 @@
         <v>17</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -3243,33 +3259,33 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -3287,33 +3303,33 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -3328,36 +3344,36 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -3375,33 +3391,33 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -3419,33 +3435,33 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -3463,33 +3479,33 @@
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
@@ -3507,33 +3523,33 @@
         <v>42</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -3551,33 +3567,33 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>749</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
@@ -3595,33 +3611,33 @@
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
@@ -3639,33 +3655,33 @@
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -3683,33 +3699,33 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -3727,33 +3743,33 @@
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -3771,33 +3787,33 @@
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>27</v>
@@ -3815,33 +3831,33 @@
         <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -3859,33 +3875,33 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>14</v>
@@ -3903,33 +3919,33 @@
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -3947,33 +3963,33 @@
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
@@ -3991,33 +4007,33 @@
         <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -4035,33 +4051,33 @@
         <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>27</v>
@@ -4076,36 +4092,36 @@
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>14</v>
@@ -4120,36 +4136,36 @@
         <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>27</v>
@@ -4164,36 +4180,36 @@
         <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>27</v>
@@ -4208,36 +4224,36 @@
         <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>27</v>
@@ -4252,36 +4268,36 @@
         <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>14</v>
@@ -4296,36 +4312,36 @@
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
@@ -4340,37 +4356,37 @@
         <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -4385,36 +4401,36 @@
         <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -4432,33 +4448,33 @@
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>14</v>
@@ -4476,33 +4492,33 @@
         <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -4520,33 +4536,33 @@
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>27</v>
@@ -4564,33 +4580,33 @@
         <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -4608,33 +4624,33 @@
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>14</v>
@@ -4652,33 +4668,33 @@
         <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>14</v>
@@ -4696,33 +4712,33 @@
         <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>14</v>
@@ -4740,33 +4756,33 @@
         <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>27</v>
@@ -4784,33 +4800,33 @@
         <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>14</v>
@@ -4828,13 +4844,13 @@
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>18</v>
@@ -4843,18 +4859,18 @@
         <v>18</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>14</v>
@@ -4872,33 +4888,33 @@
         <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>21</v>
@@ -4916,33 +4932,33 @@
         <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>14</v>
@@ -4960,33 +4976,33 @@
         <v>15</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>27</v>
@@ -5004,33 +5020,33 @@
         <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -5048,33 +5064,33 @@
         <v>15</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>14</v>
@@ -5092,33 +5108,33 @@
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>21</v>
@@ -5136,33 +5152,33 @@
         <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>14</v>
@@ -5180,33 +5196,33 @@
         <v>42</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>27</v>
@@ -5224,33 +5240,33 @@
         <v>15</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>14</v>
@@ -5268,33 +5284,33 @@
         <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>14</v>
@@ -5312,33 +5328,33 @@
         <v>15</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>14</v>
@@ -5353,36 +5369,36 @@
         <v>4</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>27</v>
@@ -5397,36 +5413,36 @@
         <v>4</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>14</v>
@@ -5441,36 +5457,36 @@
         <v>4</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>27</v>
@@ -5485,36 +5501,36 @@
         <v>4</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>27</v>
@@ -5529,36 +5545,36 @@
         <v>4</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>27</v>
@@ -5576,33 +5592,33 @@
         <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>14</v>
@@ -5620,33 +5636,33 @@
         <v>15</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>21</v>
@@ -5664,33 +5680,33 @@
         <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>27</v>
@@ -5708,33 +5724,33 @@
         <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>21</v>
@@ -5752,33 +5768,33 @@
         <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>14</v>
@@ -5796,33 +5812,33 @@
         <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>27</v>
@@ -5840,33 +5856,33 @@
         <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
@@ -5881,36 +5897,36 @@
         <v>5</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
@@ -5928,33 +5944,33 @@
         <v>42</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>21</v>
@@ -5972,33 +5988,33 @@
         <v>42</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>27</v>
@@ -6016,33 +6032,33 @@
         <v>42</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>21</v>
@@ -6060,33 +6076,33 @@
         <v>42</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>21</v>
@@ -6101,36 +6117,36 @@
         <v>5</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>14</v>
@@ -6145,36 +6161,36 @@
         <v>5</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>27</v>
@@ -6189,36 +6205,36 @@
         <v>5</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>27</v>
@@ -6233,36 +6249,36 @@
         <v>5</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>27</v>
@@ -6277,36 +6293,36 @@
         <v>5</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>21</v>
@@ -6321,36 +6337,36 @@
         <v>5</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>27</v>
@@ -6365,36 +6381,36 @@
         <v>5</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>21</v>
@@ -6409,36 +6425,36 @@
         <v>5</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>27</v>
@@ -6453,36 +6469,36 @@
         <v>5</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>21</v>
@@ -6497,36 +6513,36 @@
         <v>5</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>21</v>
@@ -6541,36 +6557,36 @@
         <v>5</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>21</v>
@@ -6585,36 +6601,36 @@
         <v>5</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>27</v>
@@ -6629,36 +6645,36 @@
         <v>5</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>27</v>
@@ -6676,33 +6692,33 @@
         <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>14</v>
@@ -6720,33 +6736,33 @@
         <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>27</v>
@@ -6764,33 +6780,33 @@
         <v>15</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>52</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
@@ -6808,33 +6824,33 @@
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>27</v>
@@ -6852,33 +6868,33 @@
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
@@ -6896,33 +6912,33 @@
         <v>15</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>27</v>
@@ -6940,33 +6956,33 @@
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>14</v>
@@ -6984,33 +7000,33 @@
         <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>14</v>
@@ -7028,33 +7044,33 @@
         <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>14</v>
@@ -7072,33 +7088,33 @@
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>27</v>
@@ -7116,33 +7132,33 @@
         <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>27</v>
@@ -7160,33 +7176,33 @@
         <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>21</v>
@@ -7204,33 +7220,33 @@
         <v>42</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>14</v>
@@ -7248,33 +7264,33 @@
         <v>42</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>14</v>
@@ -7292,33 +7308,33 @@
         <v>42</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>27</v>
@@ -7333,36 +7349,36 @@
         <v>6</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>14</v>
@@ -7377,36 +7393,36 @@
         <v>6</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>14</v>
@@ -7421,36 +7437,36 @@
         <v>6</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>27</v>
@@ -7465,36 +7481,36 @@
         <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>14</v>
@@ -7509,36 +7525,36 @@
         <v>6</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>14</v>
@@ -7553,36 +7569,36 @@
         <v>6</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>14</v>
@@ -7597,36 +7613,36 @@
         <v>6</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>21</v>
@@ -7641,36 +7657,36 @@
         <v>6</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>14</v>
@@ -7685,36 +7701,36 @@
         <v>6</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>14</v>
@@ -7729,36 +7745,36 @@
         <v>6</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>21</v>
@@ -7773,36 +7789,36 @@
         <v>6</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>27</v>
@@ -7817,36 +7833,36 @@
         <v>6</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>27</v>
@@ -7861,36 +7877,36 @@
         <v>6</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>27</v>
@@ -7905,36 +7921,36 @@
         <v>6</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>14</v>
@@ -7952,33 +7968,33 @@
         <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>14</v>
@@ -7996,33 +8012,33 @@
         <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>27</v>
@@ -8040,33 +8056,33 @@
         <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>21</v>
@@ -8084,33 +8100,33 @@
         <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>14</v>
@@ -8128,33 +8144,33 @@
         <v>15</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>27</v>
@@ -8172,7 +8188,7 @@
         <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>44</v>
@@ -8181,24 +8197,24 @@
         <v>17</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>21</v>
@@ -8216,33 +8232,33 @@
         <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>27</v>
@@ -8260,33 +8276,33 @@
         <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>27</v>
@@ -8304,33 +8320,33 @@
         <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>21</v>
@@ -8348,33 +8364,33 @@
         <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>27</v>
@@ -8392,33 +8408,33 @@
         <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>14</v>
@@ -8436,33 +8452,33 @@
         <v>15</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>21</v>
@@ -8480,13 +8496,13 @@
         <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>23</v>
@@ -8495,18 +8511,18 @@
         <v>24</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>27</v>
@@ -8524,33 +8540,33 @@
         <v>15</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>27</v>
@@ -8568,33 +8584,33 @@
         <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>21</v>
@@ -8612,33 +8628,33 @@
         <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>14</v>
@@ -8656,33 +8672,33 @@
         <v>15</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>21</v>
@@ -8700,33 +8716,33 @@
         <v>42</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>14</v>
@@ -8744,33 +8760,33 @@
         <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>27</v>
@@ -8788,33 +8804,33 @@
         <v>15</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>14</v>
@@ -8832,33 +8848,33 @@
         <v>15</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>14</v>
@@ -8876,33 +8892,33 @@
         <v>15</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>14</v>
@@ -8920,33 +8936,33 @@
         <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>21</v>
@@ -8964,33 +8980,33 @@
         <v>15</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>21</v>
@@ -9008,33 +9024,33 @@
         <v>42</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>14</v>
@@ -9052,33 +9068,33 @@
         <v>15</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>27</v>
@@ -9096,33 +9112,33 @@
         <v>42</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>27</v>
@@ -9140,33 +9156,33 @@
         <v>42</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>47</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>27</v>
@@ -9181,36 +9197,36 @@
         <v>7</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>21</v>
@@ -9225,36 +9241,36 @@
         <v>7</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>21</v>
@@ -9269,36 +9285,36 @@
         <v>7</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>27</v>
@@ -9313,36 +9329,36 @@
         <v>7</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>14</v>
@@ -9357,36 +9373,36 @@
         <v>7</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>14</v>
@@ -9401,36 +9417,36 @@
         <v>7</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>27</v>
@@ -9445,36 +9461,36 @@
         <v>7</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>27</v>
@@ -9489,36 +9505,36 @@
         <v>7</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>27</v>
@@ -9533,36 +9549,36 @@
         <v>7</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>21</v>
@@ -9577,36 +9593,36 @@
         <v>7</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>21</v>
@@ -9624,33 +9640,33 @@
         <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>53</v>
+        <v>734</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>27</v>
@@ -9668,33 +9684,33 @@
         <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>58</v>
+        <v>735</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>14</v>
@@ -9712,33 +9728,33 @@
         <v>15</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>65</v>
+        <v>736</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>21</v>
@@ -9756,10 +9772,10 @@
         <v>15</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>17</v>
@@ -9771,18 +9787,18 @@
         <v>18</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>71</v>
+        <v>737</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>27</v>
@@ -9800,33 +9816,33 @@
         <v>15</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>76</v>
+        <v>738</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>27</v>
@@ -9844,33 +9860,33 @@
         <v>15</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>82</v>
+        <v>739</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>27</v>
@@ -9888,33 +9904,33 @@
         <v>15</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>89</v>
+        <v>740</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>27</v>
@@ -9932,13 +9948,13 @@
         <v>15</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>18</v>
@@ -9947,18 +9963,18 @@
         <v>18</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>95</v>
+        <v>741</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>14</v>
@@ -9976,33 +9992,33 @@
         <v>15</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>100</v>
+        <v>742</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>21</v>
@@ -10020,13 +10036,13 @@
         <v>15</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>18</v>
@@ -10035,18 +10051,18 @@
         <v>18</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>106</v>
+        <v>743</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>14</v>
@@ -10064,33 +10080,33 @@
         <v>15</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>112</v>
+        <v>744</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>21</v>
@@ -10108,33 +10124,33 @@
         <v>42</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>119</v>
+        <v>745</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>14</v>
@@ -10152,10 +10168,10 @@
         <v>42</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>17</v>
@@ -10164,71 +10180,73 @@
         <v>18</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>125</v>
+        <v>746</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C171" s="2">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D171" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E171" s="2">
         <v>8</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>726</v>
+        <v>42</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>725</v>
+        <v>670</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>725</v>
+        <v>671</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>725</v>
+        <v>17</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>725</v>
+        <v>18</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>725</v>
+        <v>18</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>191</v>
+        <v>747</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+        <v>706</v>
+      </c>
+      <c r="P171" s="2"/>
+      <c r="T171" s="2"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C172" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>8</v>
@@ -10237,39 +10255,39 @@
         <v>8</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C173" s="2">
         <v>39</v>
@@ -10281,42 +10299,42 @@
         <v>8</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C174" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D174" s="2">
         <v>8</v>
@@ -10325,36 +10343,36 @@
         <v>8</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>14</v>
@@ -10369,36 +10387,36 @@
         <v>8</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>14</v>
@@ -10413,42 +10431,42 @@
         <v>8</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D177" s="2">
         <v>8</v>
@@ -10457,42 +10475,42 @@
         <v>8</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C178" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D178" s="2">
         <v>8</v>
@@ -10501,42 +10519,42 @@
         <v>8</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C179" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D179" s="2">
         <v>8</v>
@@ -10545,42 +10563,42 @@
         <v>8</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C180" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D180" s="2">
         <v>8</v>
@@ -10589,42 +10607,42 @@
         <v>8</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C181" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D181" s="2">
         <v>8</v>
@@ -10633,42 +10651,42 @@
         <v>8</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C182" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>8</v>
@@ -10677,36 +10695,36 @@
         <v>8</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>27</v>
@@ -10721,42 +10739,42 @@
         <v>8</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C184" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D184" s="2">
         <v>8</v>
@@ -10765,43 +10783,42 @@
         <v>8</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="P184" s="2"/>
+        <v>707</v>
+      </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C185" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2">
         <v>8</v>
@@ -10810,80 +10827,81 @@
         <v>8</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>723</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="P185" s="2"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C186" s="2">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D186" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>15</v>
+        <v>710</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>685</v>
+        <v>178</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>27</v>
@@ -10901,33 +10919,33 @@
         <v>15</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>27</v>
@@ -10951,27 +10969,27 @@
         <v>17</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>691</v>
+        <v>749</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>27</v>
@@ -10992,30 +11010,30 @@
         <v>17</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>27</v>
@@ -11033,33 +11051,33 @@
         <v>15</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>27</v>
@@ -11077,33 +11095,33 @@
         <v>15</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>14</v>
@@ -11121,33 +11139,33 @@
         <v>15</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>27</v>
@@ -11165,33 +11183,33 @@
         <v>15</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>21</v>
@@ -11209,33 +11227,33 @@
         <v>15</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>14</v>
@@ -11253,33 +11271,33 @@
         <v>15</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>27</v>
@@ -11303,27 +11321,27 @@
         <v>17</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>27</v>
@@ -11341,33 +11359,33 @@
         <v>15</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>14</v>
@@ -11391,27 +11409,27 @@
         <v>17</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>27</v>
@@ -11435,27 +11453,27 @@
         <v>17</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>14</v>
@@ -11479,27 +11497,27 @@
         <v>17</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>27</v>
@@ -11523,27 +11541,27 @@
         <v>17</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>27</v>
@@ -11567,27 +11585,27 @@
         <v>17</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>21</v>
@@ -11611,27 +11629,27 @@
         <v>17</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>14</v>
@@ -11655,27 +11673,27 @@
         <v>17</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>27</v>
@@ -11699,27 +11717,27 @@
         <v>17</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>27</v>
@@ -11743,27 +11761,27 @@
         <v>17</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>21</v>
@@ -11787,27 +11805,27 @@
         <v>17</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>21</v>
@@ -11831,27 +11849,27 @@
         <v>17</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>14</v>
@@ -11875,27 +11893,27 @@
         <v>17</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>14</v>
@@ -11919,27 +11937,27 @@
         <v>17</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>21</v>
@@ -11960,25 +11978,25 @@
         <v>28</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>

--- a/public_report.xlsx
+++ b/public_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\rating_calculator\real\output\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618B281-8D25-4114-8549-7CF14EC53F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3082AD7C-F939-4026-AF46-6989F1FD0C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="752">
   <si>
     <t>이름</t>
   </si>
@@ -319,12 +319,6 @@
     <t>44.0% (25 게임)</t>
   </si>
   <si>
-    <t>58.3% (24 게임)</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
     <t>0.35</t>
   </si>
   <si>
@@ -367,9 +361,6 @@
     <t>71.2% (52 게임)</t>
   </si>
   <si>
-    <t>15.0% (20 게임)</t>
-  </si>
-  <si>
     <t>1.31</t>
   </si>
   <si>
@@ -589,9 +580,6 @@
     <t>뚜밥</t>
   </si>
   <si>
-    <t>52.6% (78 게임)</t>
-  </si>
-  <si>
     <t>2.98</t>
   </si>
   <si>
@@ -601,24 +589,15 @@
     <t>요닝</t>
   </si>
   <si>
-    <t>53.5% (99 게임)</t>
-  </si>
-  <si>
     <t>40.0% (15 게임)</t>
   </si>
   <si>
     <t>100.0% (1 게임)</t>
   </si>
   <si>
-    <t>3.33</t>
-  </si>
-  <si>
     <t>0.20</t>
   </si>
   <si>
-    <t>3등 (총 21명)</t>
-  </si>
-  <si>
     <t>무찌</t>
   </si>
   <si>
@@ -655,21 +634,12 @@
     <t>규리야</t>
   </si>
   <si>
-    <t>64.4% (104 게임)</t>
-  </si>
-  <si>
     <t>26.7% (15 게임)</t>
   </si>
   <si>
     <t>50.0% (18 게임)</t>
   </si>
   <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>5등 (총 21명)</t>
-  </si>
-  <si>
     <t>공다츠</t>
   </si>
   <si>
@@ -745,18 +715,9 @@
     <t>찌킹</t>
   </si>
   <si>
-    <t>43.8% (73 게임)</t>
-  </si>
-  <si>
     <t>50.0% (8 게임)</t>
   </si>
   <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>11등 (총 21명)</t>
-  </si>
-  <si>
     <t>햇살</t>
   </si>
   <si>
@@ -766,9 +727,6 @@
     <t>1.71</t>
   </si>
   <si>
-    <t>12등 (총 21명)</t>
-  </si>
-  <si>
     <t>앵지</t>
   </si>
   <si>
@@ -802,9 +760,6 @@
     <t>1.78</t>
   </si>
   <si>
-    <t>14등 (총 21명)</t>
-  </si>
-  <si>
     <t>태영</t>
   </si>
   <si>
@@ -820,30 +775,18 @@
     <t>57.1% (70 게임)</t>
   </si>
   <si>
-    <t>16등 (총 21명)</t>
-  </si>
-  <si>
     <t>우리밍</t>
   </si>
   <si>
     <t>53.0% (66 게임)</t>
   </si>
   <si>
-    <t>17등 (총 21명)</t>
-  </si>
-  <si>
     <t>구루미</t>
   </si>
   <si>
     <t>70.6% (34 게임)</t>
   </si>
   <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>18등 (총 21명)</t>
-  </si>
-  <si>
     <t>연애인</t>
   </si>
   <si>
@@ -982,18 +925,12 @@
     <t>강덕구</t>
   </si>
   <si>
-    <t>28.9% (45 게임)</t>
-  </si>
-  <si>
     <t>22.9% (35 게임)</t>
   </si>
   <si>
     <t>55.3% (47 게임)</t>
   </si>
   <si>
-    <t>1.89</t>
-  </si>
-  <si>
     <t>5등 (총 12명)</t>
   </si>
   <si>
@@ -1054,15 +991,9 @@
     <t>소주양</t>
   </si>
   <si>
-    <t>69.2% (52 게임)</t>
-  </si>
-  <si>
     <t>90.5% (21 게임)</t>
   </si>
   <si>
-    <t>1.99</t>
-  </si>
-  <si>
     <t>9등 (총 12명)</t>
   </si>
   <si>
@@ -1189,9 +1120,6 @@
     <t>팥순</t>
   </si>
   <si>
-    <t>36.5% (63 게임)</t>
-  </si>
-  <si>
     <t>27.8% (18 게임)</t>
   </si>
   <si>
@@ -1366,9 +1294,6 @@
     <t>70.8% (24 게임)</t>
   </si>
   <si>
-    <t>1.87</t>
-  </si>
-  <si>
     <t>12등 (총 15명)</t>
   </si>
   <si>
@@ -1471,36 +1396,21 @@
     <t>2라니</t>
   </si>
   <si>
-    <t>63.2% (68 게임)</t>
-  </si>
-  <si>
     <t>39.1% (23 게임)</t>
   </si>
   <si>
     <t>54.5% (11 게임)</t>
   </si>
   <si>
-    <t>3.26</t>
-  </si>
-  <si>
     <t>0.24</t>
   </si>
   <si>
-    <t>2등 (총 28명)</t>
-  </si>
-  <si>
     <t>오리꿍</t>
   </si>
   <si>
     <t>81.8% (22 게임)</t>
   </si>
   <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>16등 (총 28명)</t>
-  </si>
-  <si>
     <t>한쪼니</t>
   </si>
   <si>
@@ -1519,12 +1429,6 @@
     <t>내가먼지</t>
   </si>
   <si>
-    <t>65.1% (86 게임)</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
     <t>1등 (총 28명)</t>
   </si>
   <si>
@@ -1540,9 +1444,6 @@
     <t>2.82</t>
   </si>
   <si>
-    <t>3등 (총 28명)</t>
-  </si>
-  <si>
     <t>밍가</t>
   </si>
   <si>
@@ -1702,9 +1603,6 @@
     <t>3.28</t>
   </si>
   <si>
-    <t>17등 (총 28명)</t>
-  </si>
-  <si>
     <t>다뉴</t>
   </si>
   <si>
@@ -1720,12 +1618,6 @@
     <t>사사삼</t>
   </si>
   <si>
-    <t>26.8% (56 게임)</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
     <t>0.18</t>
   </si>
   <si>
@@ -1744,25 +1636,13 @@
     <t>0.87</t>
   </si>
   <si>
-    <t>20등 (총 28명)</t>
-  </si>
-  <si>
     <t>또해영</t>
   </si>
   <si>
-    <t>59.4% (69 게임)</t>
-  </si>
-  <si>
     <t>42.9% (14 게임)</t>
   </si>
   <si>
     <t>1.53</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>21등 (총 28명)</t>
   </si>
   <si>
     <t>먼진</t>
@@ -2318,6 +2198,148 @@
   <si>
     <t>로직 신뢰도 등급</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.2% (79 게임)</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>64.8% (105 게임)</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>3등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0% (100 게임)</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>5등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.2% (74 게임)</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>12등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.4% (35 게임)</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>16등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18등 (총 21명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다소 낮음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.3% (21 게임)</t>
+  </si>
+  <si>
+    <t>60.0% (25 게임)</t>
+  </si>
+  <si>
+    <t>60.0% (70 게임)</t>
+  </si>
+  <si>
+    <t>31.2% (48 게임)</t>
+  </si>
+  <si>
+    <t>17등 (총 28명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16등 (총 28명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21등 (총 28명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.9% (58 게임)</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>20등 (총 28명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.5% (87 게임)</t>
+  </si>
+  <si>
+    <t>2등 (총 28명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.3% (69 게임)</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>3등 (총 28명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.9% (64 게임)</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>69.8% (53 게임)</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>72.0% (25 게임)</t>
+  </si>
+  <si>
+    <t>1.96</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2390,6 +2412,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2692,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T211"/>
+  <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2747,13 +2773,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>749</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -2785,19 +2811,19 @@
         <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -2829,19 +2855,19 @@
         <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -2873,19 +2899,19 @@
         <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -2923,13 +2949,13 @@
         <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -2967,13 +2993,13 @@
         <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -3011,13 +3037,13 @@
         <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -3055,10 +3081,10 @@
         <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>52</v>
@@ -3099,13 +3125,13 @@
         <v>17</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -3143,10 +3169,10 @@
         <v>61</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>62</v>
@@ -3187,13 +3213,13 @@
         <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -3231,13 +3257,13 @@
         <v>70</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -3275,10 +3301,10 @@
         <v>75</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>76</v>
@@ -3319,10 +3345,10 @@
         <v>81</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>82</v>
@@ -3345,31 +3371,31 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -3407,10 +3433,10 @@
         <v>74</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>62</v>
@@ -3451,10 +3477,10 @@
         <v>95</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>52</v>
@@ -3468,7 +3494,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -3486,19 +3512,19 @@
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>731</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>62</v>
@@ -3506,7 +3532,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -3524,25 +3550,25 @@
         <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>52</v>
@@ -3550,7 +3576,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -3568,39 +3594,39 @@
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -3612,25 +3638,25 @@
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>114</v>
+        <v>730</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>62</v>
@@ -3638,7 +3664,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
@@ -3656,25 +3682,25 @@
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>76</v>
@@ -3682,7 +3708,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
@@ -3700,25 +3726,25 @@
         <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>62</v>
@@ -3726,7 +3752,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>20</v>
@@ -3744,25 +3770,25 @@
         <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>62</v>
@@ -3770,7 +3796,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -3788,25 +3814,25 @@
         <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>52</v>
@@ -3814,7 +3840,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -3832,25 +3858,25 @@
         <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>62</v>
@@ -3858,7 +3884,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
@@ -3876,25 +3902,25 @@
         <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="L27" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>62</v>
@@ -3902,7 +3928,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -3920,25 +3946,25 @@
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="L28" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>62</v>
@@ -3946,7 +3972,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
@@ -3964,25 +3990,25 @@
         <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>62</v>
@@ -3990,7 +4016,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
@@ -4008,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>55</v>
@@ -4017,16 +4043,16 @@
         <v>84</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>76</v>
@@ -4034,7 +4060,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>20</v>
@@ -4052,25 +4078,25 @@
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>62</v>
@@ -4078,7 +4104,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>26</v>
@@ -4093,36 +4119,36 @@
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -4137,36 +4163,36 @@
         <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>26</v>
@@ -4181,36 +4207,36 @@
         <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
@@ -4225,36 +4251,36 @@
         <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>26</v>
@@ -4269,36 +4295,36 @@
         <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -4313,36 +4339,36 @@
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>20</v>
@@ -4357,37 +4383,37 @@
         <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>20</v>
@@ -4402,42 +4428,42 @@
         <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
@@ -4449,7 +4475,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>188</v>
+        <v>710</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>55</v>
@@ -4458,30 +4484,30 @@
         <v>85</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>189</v>
+        <v>711</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
@@ -4496,36 +4522,37 @@
         <v>192</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="L41" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -4537,33 +4564,34 @@
         <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>199</v>
+        <v>712</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>713</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>202</v>
+        <v>714</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>26</v>
@@ -4581,39 +4609,40 @@
         <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
@@ -4625,33 +4654,33 @@
         <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>210</v>
+        <v>715</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>213</v>
+        <v>716</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>214</v>
+        <v>717</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -4669,33 +4698,33 @@
         <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -4713,33 +4742,33 @@
         <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -4757,33 +4786,33 @@
         <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>26</v>
@@ -4801,25 +4830,25 @@
         <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>52</v>
@@ -4827,7 +4856,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
@@ -4845,10 +4874,10 @@
         <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>58</v>
@@ -4860,10 +4889,10 @@
         <v>17</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>76</v>
@@ -4871,13 +4900,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C50" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2">
         <v>4</v>
@@ -4889,25 +4918,25 @@
         <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>243</v>
+        <v>718</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>52</v>
@@ -4915,13 +4944,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="D51" s="2">
         <v>4</v>
@@ -4933,33 +4962,33 @@
         <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>247</v>
+        <v>721</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -4977,77 +5006,77 @@
         <v>14</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="2">
-        <v>112</v>
-      </c>
-      <c r="D53" s="2">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="3">
+        <v>96</v>
+      </c>
+      <c r="D53" s="3">
         <v>4</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>4</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>62</v>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>20</v>
@@ -5065,13 +5094,13 @@
         <v>14</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>65</v>
@@ -5080,10 +5109,10 @@
         <v>66</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>62</v>
@@ -5091,57 +5120,57 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>264</v>
+        <v>723</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>65</v>
+        <v>724</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>265</v>
+        <v>725</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>52</v>
+        <v>728</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
@@ -5153,69 +5182,69 @@
         <v>14</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>268</v>
+        <v>726</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D57" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2">
         <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>272</v>
+        <v>727</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>76</v>
@@ -5223,7 +5252,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>26</v>
@@ -5241,25 +5270,25 @@
         <v>14</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>62</v>
@@ -5267,7 +5296,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -5285,25 +5314,25 @@
         <v>14</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>76</v>
@@ -5311,7 +5340,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -5329,25 +5358,25 @@
         <v>14</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>52</v>
@@ -5355,7 +5384,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -5370,36 +5399,36 @@
         <v>4</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>26</v>
@@ -5414,36 +5443,36 @@
         <v>4</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>13</v>
@@ -5458,36 +5487,36 @@
         <v>4</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>26</v>
@@ -5502,36 +5531,36 @@
         <v>4</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>26</v>
@@ -5546,36 +5575,36 @@
         <v>4</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>26</v>
@@ -5593,25 +5622,25 @@
         <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>52</v>
@@ -5619,7 +5648,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>13</v>
@@ -5637,25 +5666,25 @@
         <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>62</v>
@@ -5663,7 +5692,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>20</v>
@@ -5681,25 +5710,25 @@
         <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>76</v>
@@ -5707,7 +5736,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>26</v>
@@ -5725,25 +5754,25 @@
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>76</v>
@@ -5751,13 +5780,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C70" s="2">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D70" s="2">
         <v>5</v>
@@ -5769,25 +5798,25 @@
         <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>320</v>
+        <v>89</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>62</v>
@@ -5795,13 +5824,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C71" s="2">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2">
         <v>5</v>
@@ -5813,25 +5842,25 @@
         <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>327</v>
+        <v>720</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>328</v>
+        <v>520</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>62</v>
@@ -5839,7 +5868,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>26</v>
@@ -5857,25 +5886,25 @@
         <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>76</v>
@@ -5883,7 +5912,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>20</v>
@@ -5898,28 +5927,28 @@
         <v>5</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>62</v>
@@ -5927,13 +5956,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C74" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D74" s="2">
         <v>6</v>
@@ -5945,33 +5974,33 @@
         <v>41</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>343</v>
+        <v>748</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>345</v>
+        <v>749</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>20</v>
@@ -5989,33 +6018,33 @@
         <v>41</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>26</v>
@@ -6033,33 +6062,33 @@
         <v>41</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>20</v>
@@ -6077,33 +6106,33 @@
         <v>41</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>20</v>
@@ -6118,36 +6147,36 @@
         <v>5</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>13</v>
@@ -6162,36 +6191,36 @@
         <v>5</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>26</v>
@@ -6206,36 +6235,36 @@
         <v>5</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>26</v>
@@ -6250,36 +6279,36 @@
         <v>5</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>26</v>
@@ -6294,36 +6323,36 @@
         <v>5</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>20</v>
@@ -6338,36 +6367,36 @@
         <v>5</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>26</v>
@@ -6382,36 +6411,36 @@
         <v>5</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>20</v>
@@ -6426,36 +6455,36 @@
         <v>5</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>26</v>
@@ -6470,36 +6499,36 @@
         <v>5</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>20</v>
@@ -6514,36 +6543,36 @@
         <v>5</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>20</v>
@@ -6558,36 +6587,36 @@
         <v>5</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>20</v>
@@ -6602,36 +6631,36 @@
         <v>5</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>26</v>
@@ -6646,42 +6675,42 @@
         <v>5</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C91" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D91" s="2">
         <v>6</v>
@@ -6693,25 +6722,25 @@
         <v>14</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>388</v>
+        <v>746</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>390</v>
+        <v>747</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>391</v>
+        <v>578</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>76</v>
@@ -6719,7 +6748,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>13</v>
@@ -6737,25 +6766,25 @@
         <v>14</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>52</v>
@@ -6763,7 +6792,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>26</v>
@@ -6781,25 +6810,25 @@
         <v>14</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>76</v>
@@ -6807,7 +6836,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>20</v>
@@ -6825,25 +6854,25 @@
         <v>14</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>76</v>
@@ -6851,7 +6880,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>26</v>
@@ -6869,25 +6898,25 @@
         <v>14</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>62</v>
@@ -6895,7 +6924,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>20</v>
@@ -6913,25 +6942,25 @@
         <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>62</v>
@@ -6939,7 +6968,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>26</v>
@@ -6957,25 +6986,25 @@
         <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>76</v>
@@ -6983,7 +7012,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>13</v>
@@ -7001,25 +7030,25 @@
         <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>62</v>
@@ -7027,7 +7056,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>13</v>
@@ -7045,25 +7074,25 @@
         <v>14</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>62</v>
@@ -7071,7 +7100,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>13</v>
@@ -7089,25 +7118,25 @@
         <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>62</v>
@@ -7115,7 +7144,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>26</v>
@@ -7133,25 +7162,25 @@
         <v>14</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>62</v>
@@ -7159,13 +7188,13 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D102" s="2">
         <v>6</v>
@@ -7177,25 +7206,25 @@
         <v>14</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>446</v>
+        <v>750</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>447</v>
+        <v>751</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>62</v>
@@ -7203,7 +7232,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>20</v>
@@ -7221,25 +7250,25 @@
         <v>41</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>62</v>
@@ -7247,7 +7276,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>13</v>
@@ -7265,25 +7294,25 @@
         <v>41</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>52</v>
@@ -7291,7 +7320,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>13</v>
@@ -7309,25 +7338,25 @@
         <v>41</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>76</v>
@@ -7335,7 +7364,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>26</v>
@@ -7350,36 +7379,36 @@
         <v>6</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>13</v>
@@ -7394,36 +7423,36 @@
         <v>6</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
@@ -7438,36 +7467,36 @@
         <v>6</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>26</v>
@@ -7482,36 +7511,36 @@
         <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>13</v>
@@ -7526,36 +7555,36 @@
         <v>6</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>13</v>
@@ -7570,36 +7599,36 @@
         <v>6</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>13</v>
@@ -7614,36 +7643,36 @@
         <v>6</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>20</v>
@@ -7658,36 +7687,36 @@
         <v>6</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>13</v>
@@ -7702,36 +7731,36 @@
         <v>6</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>13</v>
@@ -7746,36 +7775,36 @@
         <v>6</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>20</v>
@@ -7790,36 +7819,36 @@
         <v>6</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>26</v>
@@ -7834,36 +7863,36 @@
         <v>6</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>26</v>
@@ -7878,36 +7907,36 @@
         <v>6</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>26</v>
@@ -7922,42 +7951,42 @@
         <v>6</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D120" s="2">
         <v>7</v>
@@ -7969,39 +7998,39 @@
         <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>482</v>
+        <v>733</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>487</v>
+        <v>734</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>488</v>
+        <v>530</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C121" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D121" s="2">
         <v>7</v>
@@ -8013,33 +8042,33 @@
         <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>170</v>
+        <v>737</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>489</v>
+        <v>55</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>490</v>
+        <v>738</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>491</v>
+        <v>739</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>26</v>
@@ -8057,39 +8086,39 @@
         <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C123" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D123" s="2">
         <v>7</v>
@@ -8101,33 +8130,33 @@
         <v>14</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>498</v>
+        <v>740</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>499</v>
+        <v>70</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>13</v>
@@ -8145,39 +8174,40 @@
         <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>505</v>
+        <v>741</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="V124" s="2"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C125" s="2">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D125" s="2">
         <v>7</v>
@@ -8189,39 +8219,39 @@
         <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>507</v>
+        <v>742</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>43</v>
+        <v>457</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>390</v>
+        <v>743</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>382</v>
+        <v>744</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>508</v>
+        <v>745</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C126" s="2">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="D126" s="2">
         <v>7</v>
@@ -8233,39 +8263,39 @@
         <v>14</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>511</v>
+        <v>43</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>38</v>
+        <v>359</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C127" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D127" s="2">
         <v>7</v>
@@ -8277,39 +8307,39 @@
         <v>14</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>205</v>
+        <v>478</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C128" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D128" s="2">
         <v>7</v>
@@ -8321,39 +8351,39 @@
         <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>520</v>
+        <v>198</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C129" s="2">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D129" s="2">
         <v>7</v>
@@ -8365,39 +8395,39 @@
         <v>14</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>525</v>
+        <v>16</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>403</v>
+        <v>488</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C130" s="2">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2">
         <v>7</v>
@@ -8409,39 +8439,39 @@
         <v>14</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>179</v>
+        <v>394</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>129</v>
+        <v>492</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>529</v>
+        <v>379</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>530</v>
+        <v>95</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C131" s="2">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D131" s="2">
         <v>7</v>
@@ -8453,39 +8483,39 @@
         <v>14</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>534</v>
+        <v>176</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>258</v>
+        <v>496</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>61</v>
+        <v>497</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C132" s="2">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D132" s="2">
         <v>7</v>
@@ -8497,39 +8527,39 @@
         <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C133" s="2">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="D133" s="2">
         <v>7</v>
@@ -8541,39 +8571,39 @@
         <v>14</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>539</v>
+        <v>241</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>540</v>
+        <v>16</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>512</v>
+        <v>22</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C134" s="2">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D134" s="2">
         <v>7</v>
@@ -8585,39 +8615,39 @@
         <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>58</v>
+        <v>507</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C135" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D135" s="2">
         <v>7</v>
@@ -8629,39 +8659,39 @@
         <v>14</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>546</v>
+        <v>261</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>547</v>
+        <v>81</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C136" s="2">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="D136" s="2">
         <v>7</v>
@@ -8673,127 +8703,127 @@
         <v>14</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>551</v>
+        <v>16</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C137" s="2">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="D137" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137" s="2">
         <v>7</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>557</v>
+        <v>58</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>16</v>
+        <v>518</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>196</v>
+        <v>520</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C138" s="2">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D138" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E138" s="2">
         <v>7</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>58</v>
+        <v>524</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>562</v>
+        <v>16</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>17</v>
+        <v>525</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>716</v>
+        <v>677</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>563</v>
+        <v>735</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C139" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D139" s="2">
         <v>7</v>
@@ -8805,39 +8835,40 @@
         <v>14</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>565</v>
+        <v>732</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>55</v>
+        <v>538</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>566</v>
+        <v>134</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>567</v>
+        <v>169</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="Q139" s="2"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>569</v>
+        <v>526</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="2">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D140" s="2">
         <v>7</v>
@@ -8849,39 +8880,39 @@
         <v>14</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>290</v>
+        <v>528</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>571</v>
+        <v>17</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>572</v>
+        <v>353</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C141" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D141" s="2">
         <v>7</v>
@@ -8893,33 +8924,33 @@
         <v>14</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>576</v>
+        <v>271</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>578</v>
+        <v>536</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>579</v>
+        <v>736</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>13</v>
@@ -8937,33 +8968,33 @@
         <v>14</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>20</v>
@@ -8981,33 +9012,33 @@
         <v>14</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>20</v>
@@ -9025,25 +9056,25 @@
         <v>41</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>62</v>
@@ -9051,7 +9082,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>13</v>
@@ -9069,25 +9100,25 @@
         <v>14</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>62</v>
@@ -9095,7 +9126,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>26</v>
@@ -9113,25 +9144,25 @@
         <v>41</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>52</v>
@@ -9139,7 +9170,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>26</v>
@@ -9157,25 +9188,25 @@
         <v>41</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>62</v>
@@ -9183,7 +9214,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>26</v>
@@ -9198,36 +9229,36 @@
         <v>7</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>20</v>
@@ -9242,36 +9273,36 @@
         <v>7</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>20</v>
@@ -9286,36 +9317,36 @@
         <v>7</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>26</v>
@@ -9330,36 +9361,36 @@
         <v>7</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>13</v>
@@ -9374,36 +9405,36 @@
         <v>7</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>13</v>
@@ -9418,36 +9449,36 @@
         <v>7</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>26</v>
@@ -9462,36 +9493,36 @@
         <v>7</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>26</v>
@@ -9506,36 +9537,36 @@
         <v>7</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>26</v>
@@ -9550,36 +9581,36 @@
         <v>7</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>20</v>
@@ -9594,36 +9625,36 @@
         <v>7</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>20</v>
@@ -9641,25 +9672,25 @@
         <v>14</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>62</v>
@@ -9667,7 +9698,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>26</v>
@@ -9685,25 +9716,25 @@
         <v>14</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>62</v>
@@ -9711,7 +9742,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>13</v>
@@ -9729,25 +9760,25 @@
         <v>14</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>52</v>
@@ -9755,7 +9786,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>20</v>
@@ -9773,10 +9804,10 @@
         <v>14</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>16</v>
@@ -9788,10 +9819,10 @@
         <v>17</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>62</v>
@@ -9799,7 +9830,7 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>26</v>
@@ -9817,25 +9848,25 @@
         <v>14</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>737</v>
+        <v>697</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>62</v>
@@ -9843,7 +9874,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>26</v>
@@ -9861,25 +9892,25 @@
         <v>14</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>738</v>
+        <v>698</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>62</v>
@@ -9887,7 +9918,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>26</v>
@@ -9905,7 +9936,7 @@
         <v>14</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>28</v>
@@ -9914,16 +9945,16 @@
         <v>58</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>62</v>
@@ -9931,7 +9962,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>26</v>
@@ -9949,13 +9980,13 @@
         <v>14</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>17</v>
@@ -9964,10 +9995,10 @@
         <v>17</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="N165" s="2" t="s">
         <v>62</v>
@@ -9975,7 +10006,7 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>13</v>
@@ -9993,25 +10024,25 @@
         <v>14</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>741</v>
+        <v>701</v>
       </c>
       <c r="N166" s="2" t="s">
         <v>62</v>
@@ -10019,7 +10050,7 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>20</v>
@@ -10037,13 +10068,13 @@
         <v>14</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>17</v>
@@ -10052,10 +10083,10 @@
         <v>17</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>742</v>
+        <v>702</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>62</v>
@@ -10063,7 +10094,7 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>13</v>
@@ -10081,25 +10112,25 @@
         <v>14</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>62</v>
@@ -10107,7 +10138,7 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>647</v>
+        <v>607</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>20</v>
@@ -10125,33 +10156,33 @@
         <v>41</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>13</v>
@@ -10169,10 +10200,10 @@
         <v>41</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>16</v>
@@ -10181,21 +10212,21 @@
         <v>17</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>26</v>
@@ -10213,10 +10244,10 @@
         <v>41</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>16</v>
@@ -10228,20 +10259,20 @@
         <v>17</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="P171" s="2"/>
       <c r="T171" s="2"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>20</v>
@@ -10256,36 +10287,36 @@
         <v>8</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>13</v>
@@ -10300,36 +10331,36 @@
         <v>8</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>20</v>
@@ -10344,36 +10375,36 @@
         <v>8</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>13</v>
@@ -10388,36 +10419,36 @@
         <v>8</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>13</v>
@@ -10432,36 +10463,36 @@
         <v>8</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>13</v>
@@ -10476,36 +10507,36 @@
         <v>8</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>13</v>
@@ -10520,36 +10551,36 @@
         <v>8</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>26</v>
@@ -10564,36 +10595,36 @@
         <v>8</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>26</v>
@@ -10608,36 +10639,36 @@
         <v>8</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>13</v>
@@ -10652,36 +10683,36 @@
         <v>8</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>20</v>
@@ -10696,36 +10727,36 @@
         <v>8</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>26</v>
@@ -10740,36 +10771,36 @@
         <v>8</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>26</v>
@@ -10784,36 +10815,36 @@
         <v>8</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>13</v>
@@ -10828,37 +10859,37 @@
         <v>8</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="P185" s="2"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>26</v>
@@ -10873,36 +10904,36 @@
         <v>8</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>26</v>
@@ -10920,33 +10951,33 @@
         <v>14</v>
       </c>
       <c r="G187" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="L187" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="H187" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="K187" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="L187" s="2" t="s">
-        <v>712</v>
-      </c>
       <c r="M187" s="2" t="s">
-        <v>747</v>
+        <v>707</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>26</v>
@@ -10970,27 +11001,27 @@
         <v>16</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>26</v>
@@ -11014,27 +11045,27 @@
         <v>55</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>26</v>
@@ -11052,33 +11083,33 @@
         <v>14</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>26</v>
@@ -11096,33 +11127,33 @@
         <v>14</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>13</v>
@@ -11140,33 +11171,33 @@
         <v>14</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>26</v>
@@ -11190,27 +11221,27 @@
         <v>58</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>20</v>
@@ -11234,27 +11265,27 @@
         <v>58</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>13</v>
@@ -11272,33 +11303,33 @@
         <v>14</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>26</v>
@@ -11322,27 +11353,27 @@
         <v>16</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>26</v>
@@ -11360,33 +11391,33 @@
         <v>14</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>13</v>
@@ -11410,27 +11441,27 @@
         <v>16</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>26</v>
@@ -11454,27 +11485,27 @@
         <v>16</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>13</v>
@@ -11498,27 +11529,27 @@
         <v>16</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>26</v>
@@ -11542,27 +11573,27 @@
         <v>16</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>26</v>
@@ -11586,27 +11617,27 @@
         <v>16</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>20</v>
@@ -11630,27 +11661,27 @@
         <v>16</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>13</v>
@@ -11674,27 +11705,27 @@
         <v>16</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>26</v>
@@ -11718,27 +11749,27 @@
         <v>16</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>26</v>
@@ -11762,27 +11793,27 @@
         <v>16</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>20</v>
@@ -11806,27 +11837,27 @@
         <v>16</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>20</v>
@@ -11850,27 +11881,27 @@
         <v>16</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>13</v>
@@ -11894,27 +11925,27 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>13</v>
@@ -11938,27 +11969,27 @@
         <v>16</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
-        <v>702</v>
+        <v>662</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>20</v>
@@ -11979,25 +12010,25 @@
         <v>27</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/public_report.xlsx
+++ b/public_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\rating_calculator\real\output\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21327042-3A64-4E52-981A-8751B2E7487D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B30830-BCEA-47CB-8936-1C972F83029F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="937">
   <si>
     <t>이름</t>
   </si>
@@ -2830,6 +2830,10 @@
   </si>
   <si>
     <t>조은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3204,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="R99" sqref="R99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3607,7 +3611,7 @@
         <v>65</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">

--- a/public_report.xlsx
+++ b/public_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\rating_calculator\real\output\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E682B-066A-47DD-AA48-25CCFF8133D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07461C03-9038-4185-9086-55FAFB61D161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3221,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
+      <selection activeCell="Q173" sqref="Q173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11934,7 +11934,7 @@
         <v>836</v>
       </c>
       <c r="P174" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.4">

--- a/public_report.xlsx
+++ b/public_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\rating_calculator\real\output\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07461C03-9038-4185-9086-55FAFB61D161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD89C8D-2AED-4A12-98E0-CC7A9901E130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="종합 리포트" sheetId="1" r:id="rId1"/>
     <sheet name="점수 상승 Top 5" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'종합 리포트'!$A$1:$P$222</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="935">
   <si>
     <t>이름</t>
   </si>
@@ -2847,6 +2850,10 @@
   </si>
   <si>
     <t>3등 (총 3명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3221,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
-      <selection activeCell="Q173" sqref="Q173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3460,28 +3467,28 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
@@ -4210,28 +4217,28 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P20" t="s">
         <v>37</v>
@@ -5060,28 +5067,28 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P37" t="s">
         <v>37</v>
@@ -5160,28 +5167,28 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
@@ -5210,28 +5217,28 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P40" t="s">
         <v>37</v>
@@ -5260,28 +5267,28 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P41" t="s">
         <v>37</v>
@@ -5310,28 +5317,28 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P42" t="s">
         <v>37</v>
@@ -5360,28 +5367,28 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
@@ -6660,28 +6667,28 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O69" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P69" t="s">
         <v>37</v>
@@ -7660,28 +7667,28 @@
         <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O89" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P89" t="s">
         <v>37</v>
@@ -8760,28 +8767,28 @@
         <v>37</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O111" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P111" t="s">
         <v>37</v>
@@ -9060,28 +9067,28 @@
         <v>37</v>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O117" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P117" t="s">
         <v>37</v>
@@ -9210,28 +9217,28 @@
         <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O120" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P120" t="s">
         <v>37</v>
@@ -10960,28 +10967,28 @@
         <v>37</v>
       </c>
       <c r="H155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O155" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P155" t="s">
         <v>37</v>
@@ -11060,28 +11067,28 @@
         <v>37</v>
       </c>
       <c r="H157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O157" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P157" t="s">
         <v>37</v>
@@ -11160,28 +11167,28 @@
         <v>37</v>
       </c>
       <c r="H159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O159" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P159" t="s">
         <v>37</v>
@@ -12160,28 +12167,28 @@
         <v>37</v>
       </c>
       <c r="H179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O179" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P179" t="s">
         <v>37</v>
@@ -12210,28 +12217,28 @@
         <v>37</v>
       </c>
       <c r="H180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O180" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P180" t="s">
         <v>37</v>
@@ -12260,28 +12267,28 @@
         <v>37</v>
       </c>
       <c r="H181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O181" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P181" t="s">
         <v>37</v>
@@ -12560,28 +12567,28 @@
         <v>37</v>
       </c>
       <c r="H187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O187" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P187" t="s">
         <v>37</v>
@@ -12610,28 +12617,28 @@
         <v>37</v>
       </c>
       <c r="H188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O188" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P188" t="s">
         <v>37</v>
@@ -12660,28 +12667,28 @@
         <v>37</v>
       </c>
       <c r="H189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="I189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="J189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="K189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="L189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="M189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="N189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="O189" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="P189" t="s">
         <v>37</v>

--- a/public_report.xlsx
+++ b/public_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\rating_calculator\real\output\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soul1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E884D884-ABED-49C9-B9F4-FA85BE081D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C90BCF-C3B9-43EB-BE4B-F547DDE2D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="938">
   <si>
     <t>이름</t>
   </si>
@@ -2297,9 +2297,6 @@
     <t>75.0% (4 게임)</t>
   </si>
   <si>
-    <t>1등 (총 15명)</t>
-  </si>
-  <si>
     <t>김말랑</t>
   </si>
   <si>
@@ -2315,9 +2312,6 @@
     <t>46.7% (45 게임)</t>
   </si>
   <si>
-    <t>2등 (총 15명)</t>
-  </si>
-  <si>
     <t>윤진</t>
   </si>
   <si>
@@ -2339,9 +2333,6 @@
     <t>25.0% (16 게임)</t>
   </si>
   <si>
-    <t>3등 (총 15명)</t>
-  </si>
-  <si>
     <t>쟈닌</t>
   </si>
   <si>
@@ -2357,9 +2348,6 @@
     <t>22.2% (45 게임)</t>
   </si>
   <si>
-    <t>4등 (총 15명)</t>
-  </si>
-  <si>
     <t>하이현</t>
   </si>
   <si>
@@ -2375,9 +2363,6 @@
     <t>46.3% (41 게임)</t>
   </si>
   <si>
-    <t>5등 (총 15명)</t>
-  </si>
-  <si>
     <t>하솜</t>
   </si>
   <si>
@@ -2393,9 +2378,6 @@
     <t>52.5% (40 게임)</t>
   </si>
   <si>
-    <t>6등 (총 15명)</t>
-  </si>
-  <si>
     <t>은서</t>
   </si>
   <si>
@@ -2411,9 +2393,6 @@
     <t>78.6% (14 게임)</t>
   </si>
   <si>
-    <t>7등 (총 15명)</t>
-  </si>
-  <si>
     <t>요시</t>
   </si>
   <si>
@@ -2429,9 +2408,6 @@
     <t>35.7% (28 게임)</t>
   </si>
   <si>
-    <t>8등 (총 15명)</t>
-  </si>
-  <si>
     <t>팡린</t>
   </si>
   <si>
@@ -2450,9 +2426,6 @@
     <t>53.6% (28 게임)</t>
   </si>
   <si>
-    <t>9등 (총 15명)</t>
-  </si>
-  <si>
     <t>루다</t>
   </si>
   <si>
@@ -2462,9 +2435,6 @@
     <t>1.17 (4위 / 15명)</t>
   </si>
   <si>
-    <t>10등 (총 15명)</t>
-  </si>
-  <si>
     <t>송혜림</t>
   </si>
   <si>
@@ -2480,9 +2450,6 @@
     <t>53.8% (13 게임)</t>
   </si>
   <si>
-    <t>11등 (총 15명)</t>
-  </si>
-  <si>
     <t>여누띠</t>
   </si>
   <si>
@@ -2492,9 +2459,6 @@
     <t>45.1% (51 게임)</t>
   </si>
   <si>
-    <t>12등 (총 15명)</t>
-  </si>
-  <si>
     <t>경콩</t>
   </si>
   <si>
@@ -2513,9 +2477,6 @@
     <t>63.1% (65 게임)</t>
   </si>
   <si>
-    <t>13등 (총 15명)</t>
-  </si>
-  <si>
     <t>엄키키</t>
   </si>
   <si>
@@ -2528,9 +2489,6 @@
     <t>33.3% (39 게임)</t>
   </si>
   <si>
-    <t>14등 (총 15명)</t>
-  </si>
-  <si>
     <t>냥수디</t>
   </si>
   <si>
@@ -2544,9 +2502,6 @@
   </si>
   <si>
     <t>81.1% (37 게임)</t>
-  </si>
-  <si>
-    <t>15등 (총 15명)</t>
   </si>
   <si>
     <t>히추</t>
@@ -2851,6 +2806,76 @@
   </si>
   <si>
     <t>65.1% (63 게임)</t>
+  </si>
+  <si>
+    <t>45.0% (20 게임)</t>
+  </si>
+  <si>
+    <t>0.02 (15위 / 16명)</t>
+  </si>
+  <si>
+    <t>16등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1등 (총 16명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3224,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O162" sqref="O162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3337,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -3387,7 +3412,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -3437,7 +3462,7 @@
         <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
@@ -3466,28 +3491,28 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O5" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
@@ -3687,7 +3712,7 @@
         <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="P9" t="s">
         <v>68</v>
@@ -3787,7 +3812,7 @@
         <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="P11" t="s">
         <v>79</v>
@@ -3837,10 +3862,10 @@
         <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="P12" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -3887,10 +3912,10 @@
         <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="P13" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
@@ -3937,7 +3962,7 @@
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3987,7 +4012,7 @@
         <v>102</v>
       </c>
       <c r="O15" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="P15" t="s">
         <v>103</v>
@@ -4075,7 +4100,7 @@
         <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="L17" t="s">
         <v>111</v>
@@ -4087,7 +4112,7 @@
         <v>113</v>
       </c>
       <c r="O17" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="P17" t="s">
         <v>79</v>
@@ -4137,7 +4162,7 @@
         <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="P18" t="s">
         <v>79</v>
@@ -4187,7 +4212,7 @@
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="P19" t="s">
         <v>68</v>
@@ -4216,28 +4241,28 @@
         <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O20" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P20" t="s">
         <v>38</v>
@@ -4287,10 +4312,10 @@
         <v>133</v>
       </c>
       <c r="O21" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="P21" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
@@ -4387,7 +4412,7 @@
         <v>148</v>
       </c>
       <c r="O23" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="P23" t="s">
         <v>79</v>
@@ -4437,7 +4462,7 @@
         <v>153</v>
       </c>
       <c r="O24" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="P24" t="s">
         <v>96</v>
@@ -4475,7 +4500,7 @@
         <v>157</v>
       </c>
       <c r="K25" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="L25" t="s">
         <v>158</v>
@@ -4487,7 +4512,7 @@
         <v>157</v>
       </c>
       <c r="O25" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="P25" t="s">
         <v>79</v>
@@ -5066,28 +5091,28 @@
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O37" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
@@ -5166,28 +5191,28 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O39" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P39" t="s">
         <v>38</v>
@@ -5216,28 +5241,28 @@
         <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P40" t="s">
         <v>38</v>
@@ -5266,28 +5291,28 @@
         <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O41" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P41" t="s">
         <v>38</v>
@@ -5316,28 +5341,28 @@
         <v>38</v>
       </c>
       <c r="H42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O42" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P42" t="s">
         <v>38</v>
@@ -5366,28 +5391,28 @@
         <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O43" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P43" t="s">
         <v>38</v>
@@ -5437,7 +5462,7 @@
         <v>112</v>
       </c>
       <c r="O44" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="P44" t="s">
         <v>79</v>
@@ -5445,7 +5470,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -5487,7 +5512,7 @@
         <v>59</v>
       </c>
       <c r="O45" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="P45" t="s">
         <v>68</v>
@@ -6666,28 +6691,28 @@
         <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O69" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P69" t="s">
         <v>38</v>
@@ -7231,7 +7256,7 @@
         <v>440</v>
       </c>
       <c r="M80" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="N80" t="s">
         <v>314</v>
@@ -7666,28 +7691,28 @@
         <v>38</v>
       </c>
       <c r="H89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O89" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P89" t="s">
         <v>38</v>
@@ -8766,28 +8791,28 @@
         <v>38</v>
       </c>
       <c r="H111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O111" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P111" t="s">
         <v>38</v>
@@ -9066,28 +9091,28 @@
         <v>38</v>
       </c>
       <c r="H117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O117" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P117" t="s">
         <v>38</v>
@@ -9216,28 +9241,28 @@
         <v>38</v>
       </c>
       <c r="H120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O120" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P120" t="s">
         <v>38</v>
@@ -9266,28 +9291,28 @@
         <v>38</v>
       </c>
       <c r="H121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O121" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P121" t="s">
         <v>38</v>
@@ -10966,28 +10991,28 @@
         <v>38</v>
       </c>
       <c r="H155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O155" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P155" t="s">
         <v>38</v>
@@ -11066,28 +11091,28 @@
         <v>38</v>
       </c>
       <c r="H157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O157" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P157" t="s">
         <v>38</v>
@@ -11166,28 +11191,28 @@
         <v>38</v>
       </c>
       <c r="H159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O159" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P159" t="s">
         <v>38</v>
@@ -11287,7 +11312,7 @@
         <v>466</v>
       </c>
       <c r="O161" t="s">
-        <v>757</v>
+        <v>937</v>
       </c>
       <c r="P161" t="s">
         <v>96</v>
@@ -11295,7 +11320,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B162" t="s">
         <v>26</v>
@@ -11316,19 +11341,19 @@
         <v>20</v>
       </c>
       <c r="H162" t="s">
+        <v>758</v>
+      </c>
+      <c r="I162" t="s">
         <v>759</v>
-      </c>
-      <c r="I162" t="s">
-        <v>760</v>
       </c>
       <c r="J162" t="s">
         <v>51</v>
       </c>
       <c r="K162" t="s">
+        <v>760</v>
+      </c>
+      <c r="L162" t="s">
         <v>761</v>
-      </c>
-      <c r="L162" t="s">
-        <v>762</v>
       </c>
       <c r="M162" t="s">
         <v>339</v>
@@ -11337,7 +11362,7 @@
         <v>501</v>
       </c>
       <c r="O162" t="s">
-        <v>763</v>
+        <v>936</v>
       </c>
       <c r="P162" t="s">
         <v>96</v>
@@ -11345,7 +11370,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B163" t="s">
         <v>32</v>
@@ -11357,7 +11382,7 @@
         <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F163" t="s">
         <v>19</v>
@@ -11366,28 +11391,28 @@
         <v>20</v>
       </c>
       <c r="H163" t="s">
+        <v>764</v>
+      </c>
+      <c r="I163" t="s">
+        <v>765</v>
+      </c>
+      <c r="J163" t="s">
+        <v>22</v>
+      </c>
+      <c r="K163" t="s">
         <v>766</v>
       </c>
-      <c r="I163" t="s">
+      <c r="L163" t="s">
         <v>767</v>
-      </c>
-      <c r="J163" t="s">
-        <v>22</v>
-      </c>
-      <c r="K163" t="s">
-        <v>768</v>
-      </c>
-      <c r="L163" t="s">
-        <v>769</v>
       </c>
       <c r="M163" t="s">
         <v>170</v>
       </c>
       <c r="N163" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="O163" t="s">
-        <v>771</v>
+        <v>935</v>
       </c>
       <c r="P163" t="s">
         <v>79</v>
@@ -11395,7 +11420,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B164" t="s">
         <v>17</v>
@@ -11407,7 +11432,7 @@
         <v>8</v>
       </c>
       <c r="E164" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F164" t="s">
         <v>19</v>
@@ -11416,7 +11441,7 @@
         <v>20</v>
       </c>
       <c r="H164" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I164" t="s">
         <v>286</v>
@@ -11425,19 +11450,19 @@
         <v>44</v>
       </c>
       <c r="K164" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="L164" t="s">
         <v>112</v>
       </c>
       <c r="M164" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="N164" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O164" t="s">
-        <v>777</v>
+        <v>934</v>
       </c>
       <c r="P164" t="s">
         <v>79</v>
@@ -11445,7 +11470,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B165" t="s">
         <v>26</v>
@@ -11457,7 +11482,7 @@
         <v>8</v>
       </c>
       <c r="E165" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F165" t="s">
         <v>19</v>
@@ -11466,7 +11491,7 @@
         <v>20</v>
       </c>
       <c r="H165" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I165" t="s">
         <v>494</v>
@@ -11475,19 +11500,19 @@
         <v>22</v>
       </c>
       <c r="K165" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L165" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M165" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="N165" t="s">
         <v>22</v>
       </c>
       <c r="O165" t="s">
-        <v>783</v>
+        <v>933</v>
       </c>
       <c r="P165" t="s">
         <v>96</v>
@@ -11495,7 +11520,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B166" t="s">
         <v>32</v>
@@ -11507,7 +11532,7 @@
         <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F166" t="s">
         <v>19</v>
@@ -11516,19 +11541,19 @@
         <v>20</v>
       </c>
       <c r="H166" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="I166" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="J166" t="s">
         <v>44</v>
       </c>
       <c r="K166" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="L166" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="M166" t="s">
         <v>57</v>
@@ -11537,7 +11562,7 @@
         <v>308</v>
       </c>
       <c r="O166" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="P166" t="s">
         <v>79</v>
@@ -11545,7 +11570,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
@@ -11557,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F167" t="s">
         <v>19</v>
@@ -11566,7 +11591,7 @@
         <v>20</v>
       </c>
       <c r="H167" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="I167" t="s">
         <v>132</v>
@@ -11575,19 +11600,19 @@
         <v>208</v>
       </c>
       <c r="K167" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="L167" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="M167" t="s">
         <v>49</v>
       </c>
       <c r="N167" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="O167" t="s">
-        <v>795</v>
+        <v>931</v>
       </c>
       <c r="P167" t="s">
         <v>79</v>
@@ -11595,7 +11620,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B168" t="s">
         <v>32</v>
@@ -11607,7 +11632,7 @@
         <v>8</v>
       </c>
       <c r="E168" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F168" t="s">
         <v>19</v>
@@ -11616,7 +11641,7 @@
         <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="I168" t="s">
         <v>34</v>
@@ -11625,19 +11650,19 @@
         <v>22</v>
       </c>
       <c r="K168" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="L168" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="M168" t="s">
         <v>501</v>
       </c>
       <c r="N168" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="O168" t="s">
-        <v>801</v>
+        <v>930</v>
       </c>
       <c r="P168" t="s">
         <v>79</v>
@@ -11645,7 +11670,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B169" t="s">
         <v>32</v>
@@ -11657,7 +11682,7 @@
         <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F169" t="s">
         <v>19</v>
@@ -11666,28 +11691,28 @@
         <v>20</v>
       </c>
       <c r="H169" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I169" t="s">
         <v>22</v>
       </c>
       <c r="J169" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="K169" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="L169" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="M169" t="s">
         <v>185</v>
       </c>
       <c r="N169" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="O169" t="s">
-        <v>808</v>
+        <v>929</v>
       </c>
       <c r="P169" t="s">
         <v>79</v>
@@ -11695,7 +11720,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B170" t="s">
         <v>17</v>
@@ -11707,7 +11732,7 @@
         <v>8</v>
       </c>
       <c r="E170" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F170" t="s">
         <v>19</v>
@@ -11716,7 +11741,7 @@
         <v>20</v>
       </c>
       <c r="H170" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="I170" t="s">
         <v>22</v>
@@ -11725,7 +11750,7 @@
         <v>29</v>
       </c>
       <c r="K170" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="L170" t="s">
         <v>22</v>
@@ -11737,7 +11762,7 @@
         <v>356</v>
       </c>
       <c r="O170" t="s">
-        <v>812</v>
+        <v>928</v>
       </c>
       <c r="P170" t="s">
         <v>79</v>
@@ -11745,7 +11770,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B171" t="s">
         <v>26</v>
@@ -11757,7 +11782,7 @@
         <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F171" t="s">
         <v>19</v>
@@ -11766,19 +11791,19 @@
         <v>20</v>
       </c>
       <c r="H171" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="I171" t="s">
         <v>112</v>
       </c>
       <c r="J171" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="K171" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="L171" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="M171" t="s">
         <v>500</v>
@@ -11787,7 +11812,7 @@
         <v>22</v>
       </c>
       <c r="O171" t="s">
-        <v>818</v>
+        <v>927</v>
       </c>
       <c r="P171" t="s">
         <v>79</v>
@@ -11795,7 +11820,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="B172" t="s">
         <v>17</v>
@@ -11807,7 +11832,7 @@
         <v>8</v>
       </c>
       <c r="E172" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F172" t="s">
         <v>19</v>
@@ -11825,19 +11850,19 @@
         <v>64</v>
       </c>
       <c r="K172" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="L172" t="s">
         <v>22</v>
       </c>
       <c r="M172" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="N172" t="s">
         <v>241</v>
       </c>
       <c r="O172" t="s">
-        <v>822</v>
+        <v>926</v>
       </c>
       <c r="P172" t="s">
         <v>96</v>
@@ -11845,7 +11870,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="B173" t="s">
         <v>26</v>
@@ -11857,7 +11882,7 @@
         <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F173" t="s">
         <v>19</v>
@@ -11866,28 +11891,28 @@
         <v>20</v>
       </c>
       <c r="H173" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="I173" t="s">
         <v>119</v>
       </c>
       <c r="J173" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="K173" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="L173" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="M173" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="N173" t="s">
         <v>22</v>
       </c>
       <c r="O173" t="s">
-        <v>829</v>
+        <v>925</v>
       </c>
       <c r="P173" t="s">
         <v>96</v>
@@ -11895,7 +11920,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B174" t="s">
         <v>32</v>
@@ -11907,7 +11932,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F174" t="s">
         <v>55</v>
@@ -11916,7 +11941,7 @@
         <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="I174" t="s">
         <v>494</v>
@@ -11925,10 +11950,10 @@
         <v>22</v>
       </c>
       <c r="K174" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="L174" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="M174" t="s">
         <v>30</v>
@@ -11937,7 +11962,7 @@
         <v>273</v>
       </c>
       <c r="O174" t="s">
-        <v>834</v>
+        <v>924</v>
       </c>
       <c r="P174" t="s">
         <v>385</v>
@@ -11945,7 +11970,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="B175" t="s">
         <v>17</v>
@@ -11957,7 +11982,7 @@
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F175" t="s">
         <v>55</v>
@@ -11966,28 +11991,28 @@
         <v>20</v>
       </c>
       <c r="H175" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="I175" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="J175" t="s">
         <v>22</v>
       </c>
       <c r="K175" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="L175" t="s">
         <v>22</v>
       </c>
       <c r="M175" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="N175" t="s">
         <v>22</v>
       </c>
       <c r="O175" t="s">
-        <v>840</v>
+        <v>923</v>
       </c>
       <c r="P175" t="s">
         <v>68</v>
@@ -11995,69 +12020,69 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="B176" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C176">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F176" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G176" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="I176" t="s">
-        <v>71</v>
+        <v>920</v>
       </c>
       <c r="J176" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="K176" t="s">
-        <v>71</v>
+        <v>921</v>
       </c>
       <c r="L176" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M176" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N176" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="O176" t="s">
-        <v>71</v>
+        <v>922</v>
       </c>
       <c r="P176" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C177">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D177">
         <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F177" t="s">
         <v>70</v>
@@ -12095,10 +12120,10 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C178">
         <v>39</v>
@@ -12107,7 +12132,7 @@
         <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F178" t="s">
         <v>70</v>
@@ -12145,57 +12170,57 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D179">
         <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="I179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="J179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="K179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="L179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="M179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="N179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="O179" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="P179" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="B180" t="s">
         <v>17</v>
@@ -12207,7 +12232,7 @@
         <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F180" t="s">
         <v>38</v>
@@ -12216,28 +12241,28 @@
         <v>38</v>
       </c>
       <c r="H180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O180" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P180" t="s">
         <v>38</v>
@@ -12245,7 +12270,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="B181" t="s">
         <v>17</v>
@@ -12257,7 +12282,7 @@
         <v>8</v>
       </c>
       <c r="E181" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F181" t="s">
         <v>38</v>
@@ -12266,28 +12291,28 @@
         <v>38</v>
       </c>
       <c r="H181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O181" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P181" t="s">
         <v>38</v>
@@ -12295,69 +12320,69 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="B182" t="s">
         <v>17</v>
       </c>
       <c r="C182">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>8</v>
       </c>
       <c r="E182" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F182" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="I182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="J182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="K182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="L182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="M182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="N182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="O182" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="P182" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="B183" t="s">
         <v>17</v>
       </c>
       <c r="C183">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D183">
         <v>8</v>
       </c>
       <c r="E183" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F183" t="s">
         <v>70</v>
@@ -12395,19 +12420,19 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C184">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D184">
         <v>8</v>
       </c>
       <c r="E184" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F184" t="s">
         <v>70</v>
@@ -12445,19 +12470,19 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B185" t="s">
         <v>32</v>
       </c>
       <c r="C185">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D185">
         <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F185" t="s">
         <v>70</v>
@@ -12495,19 +12520,19 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C186">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D186">
         <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F186" t="s">
         <v>70</v>
@@ -12545,57 +12570,57 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D187">
         <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="I187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="J187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="K187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="L187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="M187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="N187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="O187" t="s">
-        <v>922</v>
+        <v>71</v>
       </c>
       <c r="P187" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="B188" t="s">
         <v>32</v>
@@ -12607,7 +12632,7 @@
         <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F188" t="s">
         <v>38</v>
@@ -12616,28 +12641,28 @@
         <v>38</v>
       </c>
       <c r="H188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O188" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P188" t="s">
         <v>38</v>
@@ -12645,10 +12670,10 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -12657,7 +12682,7 @@
         <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F189" t="s">
         <v>38</v>
@@ -12666,28 +12691,28 @@
         <v>38</v>
       </c>
       <c r="H189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="I189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="K189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="M189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="N189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="O189" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="P189" t="s">
         <v>38</v>
@@ -12695,69 +12720,69 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="B190" t="s">
         <v>17</v>
       </c>
       <c r="C190">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>8</v>
       </c>
       <c r="E190" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F190" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="I190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="J190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="K190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="L190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="M190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="N190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="O190" t="s">
-        <v>71</v>
+        <v>907</v>
       </c>
       <c r="P190" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C191">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D191">
         <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F191" t="s">
         <v>70</v>
@@ -12795,81 +12820,81 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="B192" t="s">
         <v>32</v>
       </c>
       <c r="C192">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E192" t="s">
-        <v>858</v>
+        <v>763</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G192" t="s">
-        <v>859</v>
+        <v>70</v>
       </c>
       <c r="H192" t="s">
-        <v>860</v>
+        <v>71</v>
       </c>
       <c r="I192" t="s">
-        <v>861</v>
+        <v>71</v>
       </c>
       <c r="J192" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="K192" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="L192" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="M192" t="s">
-        <v>458</v>
+        <v>71</v>
       </c>
       <c r="N192" t="s">
-        <v>353</v>
+        <v>71</v>
       </c>
       <c r="O192" t="s">
-        <v>862</v>
+        <v>71</v>
       </c>
       <c r="P192" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="B193" t="s">
         <v>32</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D193">
         <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H193" t="s">
-        <v>22</v>
+        <v>845</v>
       </c>
       <c r="I193" t="s">
-        <v>22</v>
+        <v>846</v>
       </c>
       <c r="J193" t="s">
         <v>22</v>
@@ -12878,16 +12903,16 @@
         <v>18</v>
       </c>
       <c r="L193" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M193" t="s">
-        <v>22</v>
+        <v>458</v>
       </c>
       <c r="N193" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="O193" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P193" t="s">
         <v>24</v>
@@ -12895,31 +12920,31 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B194" t="s">
         <v>32</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F194" t="s">
         <v>19</v>
       </c>
       <c r="G194" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H194" t="s">
         <v>22</v>
       </c>
       <c r="I194" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="J194" t="s">
         <v>22</v>
@@ -12928,7 +12953,7 @@
         <v>18</v>
       </c>
       <c r="L194" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="M194" t="s">
         <v>22</v>
@@ -12937,7 +12962,7 @@
         <v>22</v>
       </c>
       <c r="O194" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P194" t="s">
         <v>24</v>
@@ -12945,31 +12970,31 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="B195" t="s">
         <v>32</v>
       </c>
       <c r="C195">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F195" t="s">
         <v>19</v>
       </c>
       <c r="G195" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H195" t="s">
-        <v>866</v>
+        <v>22</v>
       </c>
       <c r="I195" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J195" t="s">
         <v>22</v>
@@ -12978,16 +13003,16 @@
         <v>18</v>
       </c>
       <c r="L195" t="s">
-        <v>867</v>
+        <v>208</v>
       </c>
       <c r="M195" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="N195" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="O195" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P195" t="s">
         <v>24</v>
@@ -12995,31 +13020,31 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C196">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D196">
         <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F196" t="s">
         <v>19</v>
       </c>
       <c r="G196" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H196" t="s">
-        <v>615</v>
+        <v>851</v>
       </c>
       <c r="I196" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="J196" t="s">
         <v>22</v>
@@ -13028,16 +13053,16 @@
         <v>18</v>
       </c>
       <c r="L196" t="s">
-        <v>22</v>
+        <v>852</v>
       </c>
       <c r="M196" t="s">
-        <v>869</v>
+        <v>138</v>
       </c>
       <c r="N196" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O196" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P196" t="s">
         <v>24</v>
@@ -13045,31 +13070,31 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D197">
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F197" t="s">
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H197" t="s">
-        <v>208</v>
+        <v>615</v>
       </c>
       <c r="I197" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="J197" t="s">
         <v>22</v>
@@ -13078,16 +13103,16 @@
         <v>18</v>
       </c>
       <c r="L197" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="M197" t="s">
-        <v>22</v>
+        <v>854</v>
       </c>
       <c r="N197" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="O197" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P197" t="s">
         <v>24</v>
@@ -13095,10 +13120,10 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -13107,13 +13132,13 @@
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
       </c>
       <c r="G198" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H198" t="s">
         <v>208</v>
@@ -13128,16 +13153,16 @@
         <v>18</v>
       </c>
       <c r="L198" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="M198" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="N198" t="s">
         <v>22</v>
       </c>
       <c r="O198" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P198" t="s">
         <v>24</v>
@@ -13145,31 +13170,31 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D199">
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
       </c>
       <c r="G199" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H199" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="I199" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J199" t="s">
         <v>22</v>
@@ -13178,16 +13203,16 @@
         <v>18</v>
       </c>
       <c r="L199" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="M199" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="N199" t="s">
         <v>22</v>
       </c>
       <c r="O199" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P199" t="s">
         <v>24</v>
@@ -13195,7 +13220,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="B200" t="s">
         <v>17</v>
@@ -13207,13 +13232,13 @@
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
       </c>
       <c r="G200" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H200" t="s">
         <v>196</v>
@@ -13237,7 +13262,7 @@
         <v>22</v>
       </c>
       <c r="O200" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P200" t="s">
         <v>24</v>
@@ -13245,7 +13270,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B201" t="s">
         <v>32</v>
@@ -13257,13 +13282,13 @@
         <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
       </c>
       <c r="G201" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H201" t="s">
         <v>22</v>
@@ -13287,7 +13312,7 @@
         <v>22</v>
       </c>
       <c r="O201" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P201" t="s">
         <v>24</v>
@@ -13295,7 +13320,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="B202" t="s">
         <v>32</v>
@@ -13307,16 +13332,16 @@
         <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
       </c>
       <c r="G202" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H202" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="I202" t="s">
         <v>22</v>
@@ -13328,7 +13353,7 @@
         <v>18</v>
       </c>
       <c r="L202" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="M202" t="s">
         <v>22</v>
@@ -13337,7 +13362,7 @@
         <v>74</v>
       </c>
       <c r="O202" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P202" t="s">
         <v>24</v>
@@ -13345,7 +13370,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="B203" t="s">
         <v>17</v>
@@ -13357,13 +13382,13 @@
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F203" t="s">
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H203" t="s">
         <v>22</v>
@@ -13387,7 +13412,7 @@
         <v>22</v>
       </c>
       <c r="O203" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P203" t="s">
         <v>24</v>
@@ -13395,7 +13420,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="B204" t="s">
         <v>32</v>
@@ -13407,13 +13432,13 @@
         <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F204" t="s">
         <v>19</v>
       </c>
       <c r="G204" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H204" t="s">
         <v>22</v>
@@ -13437,7 +13462,7 @@
         <v>22</v>
       </c>
       <c r="O204" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P204" t="s">
         <v>24</v>
@@ -13445,7 +13470,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="B205" t="s">
         <v>17</v>
@@ -13457,13 +13482,13 @@
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
       </c>
       <c r="G205" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H205" t="s">
         <v>22</v>
@@ -13487,7 +13512,7 @@
         <v>22</v>
       </c>
       <c r="O205" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P205" t="s">
         <v>24</v>
@@ -13495,7 +13520,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B206" t="s">
         <v>26</v>
@@ -13507,13 +13532,13 @@
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F206" t="s">
         <v>19</v>
       </c>
       <c r="G206" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H206" t="s">
         <v>33</v>
@@ -13531,13 +13556,13 @@
         <v>22</v>
       </c>
       <c r="M206" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="N206" t="s">
         <v>22</v>
       </c>
       <c r="O206" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P206" t="s">
         <v>24</v>
@@ -13545,7 +13570,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="B207" t="s">
         <v>32</v>
@@ -13557,13 +13582,13 @@
         <v>9</v>
       </c>
       <c r="E207" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F207" t="s">
         <v>19</v>
       </c>
       <c r="G207" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H207" t="s">
         <v>22</v>
@@ -13587,7 +13612,7 @@
         <v>22</v>
       </c>
       <c r="O207" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P207" t="s">
         <v>24</v>
@@ -13595,7 +13620,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B208" t="s">
         <v>32</v>
@@ -13607,13 +13632,13 @@
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F208" t="s">
         <v>19</v>
       </c>
       <c r="G208" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H208" t="s">
         <v>22</v>
@@ -13637,7 +13662,7 @@
         <v>22</v>
       </c>
       <c r="O208" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P208" t="s">
         <v>24</v>
@@ -13645,7 +13670,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="B209" t="s">
         <v>26</v>
@@ -13657,13 +13682,13 @@
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F209" t="s">
         <v>19</v>
       </c>
       <c r="G209" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H209" t="s">
         <v>22</v>
@@ -13687,7 +13712,7 @@
         <v>22</v>
       </c>
       <c r="O209" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P209" t="s">
         <v>24</v>
@@ -13695,7 +13720,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="B210" t="s">
         <v>17</v>
@@ -13707,13 +13732,13 @@
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
       </c>
       <c r="G210" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H210" t="s">
         <v>22</v>
@@ -13737,7 +13762,7 @@
         <v>22</v>
       </c>
       <c r="O210" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P210" t="s">
         <v>24</v>
@@ -13745,7 +13770,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="B211" t="s">
         <v>32</v>
@@ -13757,13 +13782,13 @@
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F211" t="s">
         <v>19</v>
       </c>
       <c r="G211" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H211" t="s">
         <v>22</v>
@@ -13787,7 +13812,7 @@
         <v>22</v>
       </c>
       <c r="O211" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P211" t="s">
         <v>24</v>
@@ -13795,7 +13820,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="B212" t="s">
         <v>32</v>
@@ -13807,13 +13832,13 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F212" t="s">
         <v>19</v>
       </c>
       <c r="G212" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H212" t="s">
         <v>22</v>
@@ -13837,7 +13862,7 @@
         <v>22</v>
       </c>
       <c r="O212" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P212" t="s">
         <v>24</v>
@@ -13845,7 +13870,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="B213" t="s">
         <v>26</v>
@@ -13857,13 +13882,13 @@
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
       </c>
       <c r="G213" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H213" t="s">
         <v>22</v>
@@ -13887,7 +13912,7 @@
         <v>22</v>
       </c>
       <c r="O213" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P213" t="s">
         <v>24</v>
@@ -13895,7 +13920,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="B214" t="s">
         <v>26</v>
@@ -13907,13 +13932,13 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
       </c>
       <c r="G214" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H214" t="s">
         <v>22</v>
@@ -13937,7 +13962,7 @@
         <v>22</v>
       </c>
       <c r="O214" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P214" t="s">
         <v>24</v>
@@ -13945,7 +13970,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="B215" t="s">
         <v>17</v>
@@ -13957,13 +13982,13 @@
         <v>9</v>
       </c>
       <c r="E215" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F215" t="s">
         <v>19</v>
       </c>
       <c r="G215" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H215" t="s">
         <v>22</v>
@@ -13987,7 +14012,7 @@
         <v>22</v>
       </c>
       <c r="O215" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P215" t="s">
         <v>24</v>
@@ -13995,7 +14020,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="B216" t="s">
         <v>17</v>
@@ -14007,13 +14032,13 @@
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F216" t="s">
         <v>19</v>
       </c>
       <c r="G216" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H216" t="s">
         <v>22</v>
@@ -14037,7 +14062,7 @@
         <v>22</v>
       </c>
       <c r="O216" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P216" t="s">
         <v>24</v>
@@ -14045,7 +14070,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="B217" t="s">
         <v>32</v>
@@ -14057,13 +14082,13 @@
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F217" t="s">
         <v>19</v>
       </c>
       <c r="G217" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H217" t="s">
         <v>22</v>
@@ -14087,7 +14112,7 @@
         <v>22</v>
       </c>
       <c r="O217" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P217" t="s">
         <v>24</v>
@@ -14095,7 +14120,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="B218" t="s">
         <v>17</v>
@@ -14107,13 +14132,13 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F218" t="s">
         <v>19</v>
       </c>
       <c r="G218" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H218" t="s">
         <v>22</v>
@@ -14137,7 +14162,7 @@
         <v>22</v>
       </c>
       <c r="O218" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P218" t="s">
         <v>24</v>
@@ -14145,7 +14170,7 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="B219" t="s">
         <v>26</v>
@@ -14157,13 +14182,13 @@
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F219" t="s">
         <v>19</v>
       </c>
       <c r="G219" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H219" t="s">
         <v>22</v>
@@ -14187,7 +14212,7 @@
         <v>22</v>
       </c>
       <c r="O219" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P219" t="s">
         <v>24</v>
@@ -14195,7 +14220,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="B220" t="s">
         <v>26</v>
@@ -14207,13 +14232,13 @@
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F220" t="s">
         <v>19</v>
       </c>
       <c r="G220" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H220" t="s">
         <v>22</v>
@@ -14237,7 +14262,7 @@
         <v>22</v>
       </c>
       <c r="O220" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P220" t="s">
         <v>24</v>
@@ -14245,7 +14270,7 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="B221" t="s">
         <v>32</v>
@@ -14257,13 +14282,13 @@
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F221" t="s">
         <v>19</v>
       </c>
       <c r="G221" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H221" t="s">
         <v>22</v>
@@ -14287,7 +14312,7 @@
         <v>22</v>
       </c>
       <c r="O221" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P221" t="s">
         <v>24</v>
@@ -14295,7 +14320,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="B222" t="s">
         <v>17</v>
@@ -14307,13 +14332,13 @@
         <v>9</v>
       </c>
       <c r="E222" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F222" t="s">
         <v>19</v>
       </c>
       <c r="G222" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H222" t="s">
         <v>22</v>
@@ -14337,7 +14362,7 @@
         <v>22</v>
       </c>
       <c r="O222" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P222" t="s">
         <v>24</v>
@@ -14345,7 +14370,7 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="B223" t="s">
         <v>17</v>
@@ -14357,13 +14382,13 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F223" t="s">
         <v>19</v>
       </c>
       <c r="G223" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H223" t="s">
         <v>22</v>
@@ -14387,7 +14412,7 @@
         <v>22</v>
       </c>
       <c r="O223" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P223" t="s">
         <v>24</v>
@@ -14395,7 +14420,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="B224" t="s">
         <v>32</v>
@@ -14407,13 +14432,13 @@
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F224" t="s">
         <v>19</v>
       </c>
       <c r="G224" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H224" t="s">
         <v>22</v>
@@ -14437,7 +14462,7 @@
         <v>22</v>
       </c>
       <c r="O224" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P224" t="s">
         <v>24</v>
@@ -14445,7 +14470,7 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="B225" t="s">
         <v>17</v>
@@ -14457,13 +14482,13 @@
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F225" t="s">
         <v>19</v>
       </c>
       <c r="G225" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H225" t="s">
         <v>22</v>
@@ -14487,7 +14512,7 @@
         <v>22</v>
       </c>
       <c r="O225" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P225" t="s">
         <v>24</v>
@@ -14495,7 +14520,7 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="B226" t="s">
         <v>26</v>
@@ -14507,13 +14532,13 @@
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="F226" t="s">
         <v>19</v>
       </c>
       <c r="G226" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H226" t="s">
         <v>22</v>
@@ -14537,7 +14562,7 @@
         <v>22</v>
       </c>
       <c r="O226" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="P226" t="s">
         <v>24</v>
@@ -14560,16 +14585,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -14583,7 +14608,7 @@
         <v>581</v>
       </c>
       <c r="D2" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -14597,21 +14622,21 @@
         <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="D4" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -14625,7 +14650,7 @@
         <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -14639,7 +14664,7 @@
         <v>568</v>
       </c>
       <c r="D6" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
